--- a/00. PARTS LIST 1119.xlsx
+++ b/00. PARTS LIST 1119.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\Documents\datasheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROCESSOR\Desktop\Justin\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E33BB-6110-4652-AF7F-8E801905B082}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="579">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -424,9 +423,6 @@
   </si>
   <si>
     <t>QUADRUPLE 2-INPUT POSITIVE-OR GATES</t>
-  </si>
-  <si>
-    <t>HD74HC05P</t>
   </si>
   <si>
     <t>A03-01</t>
@@ -1870,15 +1866,71 @@
     <t>LM741CN</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD14001BP</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-03</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEF4028BP</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-04</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>74F08N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-05</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-06</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN74LS06N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GD74F08</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-07</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-08</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD4518BE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-09</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월 &quot;dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2031,7 +2083,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Text 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Text 1" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -2378,14 +2430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ1218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="2" customWidth="1"/>
@@ -2400,7 +2452,7 @@
     <col min="12" max="1024" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2415,7 +2467,7 @@
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2450,7 +2502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2473,7 +2525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="17.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2496,7 +2548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="17.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2519,7 +2571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2542,7 +2594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="17.25" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2565,7 +2617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="17.25" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2588,7 +2640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="17.25" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2611,7 +2663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2634,7 +2686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="17.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2657,7 +2709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="17.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2680,7 +2732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="17.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2703,7 +2755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="17.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2726,7 +2778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2749,7 +2801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="17.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2772,7 +2824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="17.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2795,7 +2847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="17.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2818,7 +2870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="17.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2841,7 +2893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="17.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2864,7 +2916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="17.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2887,7 +2939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="17.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2910,7 +2962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="17.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2933,7 +2985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="17.25" customHeight="1">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2956,7 +3008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="17.25" customHeight="1">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2979,7 +3031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="17.25" customHeight="1">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3002,7 +3054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="17.25" customHeight="1">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3025,7 +3077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="17.25" customHeight="1">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3048,7 +3100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="17.25" customHeight="1">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3071,7 +3123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="17.25" customHeight="1">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3094,7 +3146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="17.25" customHeight="1">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3117,7 +3169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="17.25" customHeight="1">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3140,7 +3192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="17.25" customHeight="1">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3163,7 +3215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="17.25" customHeight="1">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3186,7 +3238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="17.25" customHeight="1">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3209,7 +3261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -3232,7 +3284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="17.25" customHeight="1">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -3258,15 +3310,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>14</v>
@@ -3275,21 +3327,21 @@
         <v>67</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="17.25" customHeight="1">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>14</v>
@@ -3298,21 +3350,21 @@
         <v>59</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="17.25" customHeight="1">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
@@ -3321,21 +3373,21 @@
         <v>59</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="17.25" customHeight="1">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>14</v>
@@ -3344,21 +3396,21 @@
         <v>59</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="17.25" customHeight="1">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>14</v>
@@ -3367,21 +3419,21 @@
         <v>59</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="17.25" customHeight="1">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>14</v>
@@ -3396,15 +3448,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="17.25" customHeight="1">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>14</v>
@@ -3413,21 +3465,21 @@
         <v>59</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.25" customHeight="1">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
@@ -3436,21 +3488,21 @@
         <v>67</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="17.25" customHeight="1">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>14</v>
@@ -3459,44 +3511,44 @@
         <v>20</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="17.25" customHeight="1">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="J48" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="17.25" customHeight="1">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>14</v>
@@ -3505,21 +3557,21 @@
         <v>20</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J49" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="17.25" customHeight="1">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>14</v>
@@ -3534,15 +3586,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="17.25" customHeight="1">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>14</v>
@@ -3551,67 +3603,67 @@
         <v>99</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J51" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="17.25" customHeight="1">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="J52" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="17.25" customHeight="1">
       <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="J53" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="17.25" customHeight="1">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>14</v>
@@ -3620,165 +3672,165 @@
         <v>59</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.25" customHeight="1">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J55" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="17.25" customHeight="1">
       <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="J56" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="17.25" customHeight="1">
       <c r="A57" s="1">
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="J57" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="17.25" customHeight="1">
       <c r="A58" s="1">
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="J58" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="17.25" customHeight="1">
       <c r="A59" s="1">
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J59" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="17.25" customHeight="1">
       <c r="A60" s="1">
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="J60" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="17.25" customHeight="1">
       <c r="A61" s="1">
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>14</v>
@@ -3787,5303 +3839,5345 @@
         <v>99</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="17.25" customHeight="1">
       <c r="A62" s="1">
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J62" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="17.25" customHeight="1">
       <c r="A63" s="1">
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="17.25" customHeight="1">
       <c r="A64" s="1">
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="17.25" customHeight="1">
       <c r="A65" s="1">
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="J65" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="17.25" customHeight="1">
       <c r="A66" s="1">
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="F66" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="J66" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="17.25" customHeight="1">
       <c r="A67" s="1">
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="F67" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="J67" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="17.25" customHeight="1">
       <c r="A68" s="1">
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="F68" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="J68" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="17.25" customHeight="1">
       <c r="A69" s="1">
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="F69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="J69" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="17.25" customHeight="1">
       <c r="A70" s="1">
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="F70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="J70" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="17.25" customHeight="1">
       <c r="A71" s="1">
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F71" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="J71" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="17.25" customHeight="1">
       <c r="A72" s="1">
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="F72" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="J72" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="17.25" customHeight="1">
       <c r="A73" s="1">
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J73" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="17.25" customHeight="1">
       <c r="A74" s="1">
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J74" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="17.25" customHeight="1">
       <c r="A75" s="1">
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J75" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="17.25" customHeight="1">
       <c r="A76" s="1">
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J76" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="17.25" customHeight="1">
       <c r="A77" s="1">
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J77" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="17.25" customHeight="1">
       <c r="A78" s="1">
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J78" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="17.25" customHeight="1">
       <c r="A79" s="1">
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J79" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="17.25" customHeight="1">
       <c r="A80" s="1">
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J80" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="17.25" customHeight="1">
       <c r="A81" s="1">
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J81" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="17.25" customHeight="1">
       <c r="A82" s="1">
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="17.25" customHeight="1">
       <c r="A83" s="1">
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J83" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="17.25" customHeight="1">
       <c r="A84" s="1">
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="J84" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="17.25" customHeight="1">
       <c r="A85" s="1">
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="F85" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="J85" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="17.25" customHeight="1">
       <c r="A86" s="1">
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="F86" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="J86" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="17.25" customHeight="1">
       <c r="A87" s="1">
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J87" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="17.25" customHeight="1">
       <c r="A88" s="1">
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="F88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="J88" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="17.25" customHeight="1">
       <c r="A89" s="1">
         <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J89" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="17.25" customHeight="1">
       <c r="A90" s="1">
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="F90" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="J90" s="6"/>
     </row>
-    <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="17.25" customHeight="1">
       <c r="A91" s="1">
         <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>287</v>
-      </c>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="17.25" customHeight="1">
       <c r="A92" s="1">
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="F92" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G92" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>290</v>
-      </c>
       <c r="J92" s="6"/>
     </row>
-    <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="17.25" customHeight="1">
       <c r="A93" s="1">
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="F93" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="J93" s="6"/>
     </row>
-    <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="17.25" customHeight="1">
       <c r="A94" s="1">
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G94" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>296</v>
-      </c>
       <c r="J94" s="6"/>
     </row>
-    <row r="95" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="17.25" customHeight="1">
       <c r="A95" s="1">
         <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="J95" s="6"/>
     </row>
-    <row r="96" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="17.25" customHeight="1">
       <c r="A96" s="1">
         <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J96" s="6"/>
     </row>
-    <row r="97" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="17.25" customHeight="1">
       <c r="A97" s="1">
         <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="F97" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>305</v>
-      </c>
       <c r="J97" s="6"/>
     </row>
-    <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="17.25" customHeight="1">
       <c r="A98" s="1">
         <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="F98" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G98" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>308</v>
-      </c>
       <c r="J98" s="6"/>
     </row>
-    <row r="99" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="17.25" customHeight="1">
       <c r="A99" s="1">
         <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="F99" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="J99" s="6"/>
     </row>
-    <row r="100" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="17.25" customHeight="1">
       <c r="A100" s="1">
         <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="F100" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="17.25" customHeight="1">
       <c r="A101" s="1">
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="F101" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="J101" s="6"/>
     </row>
-    <row r="102" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="17.25" customHeight="1">
       <c r="A102" s="1">
         <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="F102" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="J102" s="6"/>
     </row>
-    <row r="103" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="17.25" customHeight="1">
       <c r="A103" s="1">
         <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G103" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>323</v>
-      </c>
       <c r="J103" s="6"/>
     </row>
-    <row r="104" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="17.25" customHeight="1">
       <c r="A104" s="1">
         <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="J104" s="6"/>
     </row>
-    <row r="105" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="17.25" customHeight="1">
       <c r="A105" s="1">
         <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="J105" s="6"/>
     </row>
-    <row r="106" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="17.25" customHeight="1">
       <c r="A106" s="1">
         <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="F106" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G106" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="J106" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="17.25" customHeight="1">
       <c r="A107" s="1">
         <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="G107" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="J107" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="17.25" customHeight="1">
       <c r="A108" s="1">
         <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="17.25" customHeight="1">
       <c r="A109" s="1">
         <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="17.25" customHeight="1">
       <c r="A110" s="1">
         <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="G110" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="J110" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="17.25" customHeight="1">
       <c r="A111" s="1">
         <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="17.25" customHeight="1">
       <c r="A112" s="1">
         <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="17.25" customHeight="1">
       <c r="A113" s="1">
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="17.25" customHeight="1">
       <c r="A114" s="1">
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="F114" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:10" ht="17.25" customHeight="1">
       <c r="A115" s="1">
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="F115" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G115" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>356</v>
-      </c>
       <c r="J115" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="17.25" customHeight="1">
       <c r="A116" s="1">
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="J116" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="17.25" customHeight="1">
       <c r="A117" s="1">
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="F117" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G117" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="J117" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="17.25" customHeight="1">
       <c r="A118" s="1">
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J118" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="17.25" customHeight="1">
       <c r="A119" s="1">
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="17.25" customHeight="1">
       <c r="A120" s="1">
         <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="17.25" customHeight="1">
       <c r="A121" s="1">
         <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="17.25" customHeight="1">
       <c r="A122" s="1">
         <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="17.25" customHeight="1">
       <c r="A123" s="1">
         <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="F123" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:10" ht="17.25" customHeight="1">
       <c r="A124" s="1">
         <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="17.25" customHeight="1">
       <c r="A125" s="1">
         <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G125" s="9"/>
     </row>
-    <row r="126" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="17.25" customHeight="1">
       <c r="A126" s="1">
         <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="17.25" customHeight="1">
       <c r="A127" s="1">
         <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="G127" s="9"/>
     </row>
-    <row r="128" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="17.25" customHeight="1">
       <c r="A128" s="1">
         <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="17.25" customHeight="1">
       <c r="A129" s="1">
         <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="G129" s="9"/>
     </row>
-    <row r="130" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="17.25" customHeight="1">
       <c r="A130" s="1">
         <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="17.25" customHeight="1">
       <c r="A131" s="1">
         <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="G131" s="9"/>
     </row>
-    <row r="132" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="17.25" customHeight="1">
       <c r="A132" s="1">
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="17.25" customHeight="1">
       <c r="A133" s="1">
         <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="17.25" customHeight="1">
       <c r="A134" s="1">
         <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="G134" s="9"/>
     </row>
-    <row r="135" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="17.25" customHeight="1">
       <c r="A135" s="1">
         <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="17.25" customHeight="1">
       <c r="A136" s="1">
         <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="G136" s="9"/>
     </row>
-    <row r="137" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="17.25" customHeight="1">
       <c r="A137" s="1">
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="17.25" customHeight="1">
       <c r="A138" s="1">
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="G138" s="9">
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="17.25" customHeight="1">
       <c r="A139" s="1">
         <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="G139" s="9"/>
     </row>
-    <row r="140" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="17.25" customHeight="1">
       <c r="A140" s="1">
         <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="G140" s="9"/>
     </row>
-    <row r="141" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="17.25" customHeight="1">
       <c r="A141" s="1">
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="G141" s="9"/>
     </row>
-    <row r="142" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="17.25" customHeight="1">
       <c r="A142" s="1">
         <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="G142" s="9"/>
     </row>
-    <row r="143" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="17.25" customHeight="1">
       <c r="A143" s="1">
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="17.25" customHeight="1">
       <c r="A144" s="1">
         <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="G144" s="9"/>
     </row>
-    <row r="145" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="17.25" customHeight="1">
       <c r="A145" s="1">
         <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="17.25" customHeight="1">
       <c r="A146" s="1">
         <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="G146" s="9"/>
     </row>
-    <row r="147" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="17.25" customHeight="1">
       <c r="A147" s="1">
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="17.25" customHeight="1">
       <c r="A148" s="1">
         <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="17.25" customHeight="1">
       <c r="A149" s="1">
         <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="17.25" customHeight="1">
       <c r="A150" s="1">
         <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="17.25" customHeight="1">
       <c r="A151" s="1">
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="17.25" customHeight="1">
       <c r="A152" s="1">
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="17.25" customHeight="1">
       <c r="A153" s="1">
         <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="17.25" customHeight="1">
       <c r="A154" s="1">
         <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>443</v>
-      </c>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="17.25" customHeight="1">
       <c r="A155" s="1">
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="17.25" customHeight="1">
       <c r="A156" s="1">
         <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="17.25" customHeight="1">
       <c r="A157" s="1">
         <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="G157" s="9"/>
     </row>
-    <row r="158" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="17.25" customHeight="1">
       <c r="A158" s="1">
         <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="G158" s="9"/>
     </row>
-    <row r="159" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="17.25" customHeight="1">
       <c r="A159" s="1">
         <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>453</v>
-      </c>
       <c r="G159" s="9"/>
     </row>
-    <row r="160" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="17.25" customHeight="1">
       <c r="A160" s="1">
         <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="G160" s="9"/>
     </row>
-    <row r="161" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="17.25" customHeight="1">
       <c r="A161" s="1">
         <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="G161" s="9"/>
     </row>
-    <row r="162" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="17.25" customHeight="1">
       <c r="A162" s="1">
         <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="G162" s="9"/>
     </row>
-    <row r="163" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="17.25" customHeight="1">
       <c r="A163" s="1">
         <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="G163" s="9"/>
     </row>
-    <row r="164" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="17.25" customHeight="1">
       <c r="A164" s="1">
         <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="G164" s="9"/>
     </row>
-    <row r="165" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="17.25" customHeight="1">
       <c r="A165" s="1">
         <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="G165" s="9"/>
     </row>
-    <row r="166" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="17.25" customHeight="1">
       <c r="A166" s="1">
         <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="17.25" customHeight="1">
       <c r="A167" s="1">
         <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="G167" s="9"/>
     </row>
-    <row r="168" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="17.25" customHeight="1">
       <c r="A168" s="1">
         <v>165</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="G168" s="9"/>
     </row>
-    <row r="169" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="17.25" customHeight="1">
       <c r="A169" s="1">
         <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="G169" s="9"/>
     </row>
-    <row r="170" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="17.25" customHeight="1">
       <c r="A170" s="1">
         <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="G170" s="9"/>
     </row>
-    <row r="171" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="17.25" customHeight="1">
       <c r="A171" s="1">
         <v>168</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="G171" s="9"/>
     </row>
-    <row r="172" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="17.25" customHeight="1">
       <c r="A172" s="1">
         <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="G172" s="9"/>
     </row>
-    <row r="173" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="17.25" customHeight="1">
       <c r="A173" s="1">
         <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="G173" s="9"/>
     </row>
-    <row r="174" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="17.25" customHeight="1">
       <c r="A174" s="1">
         <v>171</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="G174" s="9"/>
     </row>
-    <row r="175" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="17.25" customHeight="1">
       <c r="A175" s="1">
         <v>172</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="G175" s="9"/>
     </row>
-    <row r="176" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="17.25" customHeight="1">
       <c r="A176" s="1">
         <v>173</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="G176" s="9"/>
     </row>
-    <row r="177" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="17.25" customHeight="1">
       <c r="A177" s="1">
         <v>174</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C177" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="C177" s="11" t="s">
-        <v>490</v>
-      </c>
       <c r="G177" s="9"/>
     </row>
-    <row r="178" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="17.25" customHeight="1">
       <c r="A178" s="1">
         <v>175</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="G178" s="9"/>
     </row>
-    <row r="179" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="17.25" customHeight="1">
       <c r="A179" s="1">
         <v>176</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="G179" s="9"/>
     </row>
-    <row r="180" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="17.25" customHeight="1">
       <c r="A180" s="1">
         <v>177</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="G180" s="9"/>
     </row>
-    <row r="181" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="17.25" customHeight="1">
       <c r="A181" s="1">
         <v>178</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="G181" s="9"/>
     </row>
-    <row r="182" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="17.25" customHeight="1">
       <c r="A182" s="1">
         <v>179</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="G182" s="9"/>
     </row>
-    <row r="183" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="17.25" customHeight="1">
       <c r="A183" s="1">
         <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>502</v>
-      </c>
       <c r="G183" s="9"/>
     </row>
-    <row r="184" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="17.25" customHeight="1">
       <c r="A184" s="1">
         <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>504</v>
-      </c>
       <c r="G184" s="9"/>
     </row>
-    <row r="185" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="17.25" customHeight="1">
       <c r="A185" s="1">
         <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>506</v>
-      </c>
       <c r="G185" s="9"/>
     </row>
-    <row r="186" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="17.25" customHeight="1">
       <c r="A186" s="1">
         <v>183</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="G186" s="9"/>
     </row>
-    <row r="187" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="17.25" customHeight="1">
       <c r="A187" s="1">
         <v>184</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="G187" s="9"/>
     </row>
-    <row r="188" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="17.25" customHeight="1">
       <c r="A188" s="1">
         <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>512</v>
-      </c>
       <c r="G188" s="9"/>
     </row>
-    <row r="189" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="17.25" customHeight="1">
       <c r="A189" s="1">
         <v>186</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="G189" s="9"/>
     </row>
-    <row r="190" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="17.25" customHeight="1">
       <c r="A190" s="1">
         <v>187</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="G190" s="9"/>
     </row>
-    <row r="191" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="17.25" customHeight="1">
       <c r="A191" s="1">
         <v>188</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>518</v>
-      </c>
       <c r="G191" s="9"/>
     </row>
-    <row r="192" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="17.25" customHeight="1">
       <c r="A192" s="1">
         <v>189</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="G192" s="9"/>
     </row>
-    <row r="193" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="17.25" customHeight="1">
       <c r="A193" s="1">
         <v>190</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>522</v>
-      </c>
       <c r="G193" s="9"/>
     </row>
-    <row r="194" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="17.25" customHeight="1">
       <c r="A194" s="1">
         <v>191</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="G194" s="9"/>
     </row>
-    <row r="195" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="17.25" customHeight="1">
       <c r="A195" s="1">
         <v>192</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="G195" s="9"/>
     </row>
-    <row r="196" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="17.25" customHeight="1">
       <c r="A196" s="1">
         <v>193</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>528</v>
-      </c>
       <c r="G196" s="9"/>
     </row>
-    <row r="197" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="17.25" customHeight="1">
       <c r="A197" s="1">
         <v>194</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="G197" s="9"/>
     </row>
-    <row r="198" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="17.25" customHeight="1">
       <c r="A198" s="1">
         <v>195</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>532</v>
-      </c>
       <c r="G198" s="9"/>
     </row>
-    <row r="199" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="17.25" customHeight="1">
       <c r="A199" s="1">
         <v>196</v>
       </c>
       <c r="B199" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="G199" s="9"/>
     </row>
-    <row r="200" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="17.25" customHeight="1">
       <c r="A200" s="1">
         <v>197</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="G200" s="9"/>
     </row>
-    <row r="201" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="17.25" customHeight="1">
       <c r="A201" s="1">
         <v>198</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="D201" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D201" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="G201" s="9"/>
     </row>
-    <row r="202" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="17.25" customHeight="1">
       <c r="A202" s="1">
         <v>199</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="G202" s="9"/>
     </row>
-    <row r="203" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="17.25" customHeight="1">
       <c r="A203" s="1">
         <v>200</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="17.25" customHeight="1">
       <c r="A204" s="1">
         <v>201</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>545</v>
-      </c>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="17.25" customHeight="1">
       <c r="A205" s="1">
         <v>202</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="17.25" customHeight="1">
       <c r="A206" s="1">
         <v>203</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>549</v>
-      </c>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="17.25" customHeight="1">
       <c r="A207" s="1">
         <v>204</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>551</v>
-      </c>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="17.25" customHeight="1">
       <c r="A208" s="1">
         <v>205</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>553</v>
-      </c>
       <c r="G208" s="9"/>
     </row>
-    <row r="209" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="17.25" customHeight="1">
       <c r="A209" s="1">
         <v>206</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>555</v>
-      </c>
       <c r="G209" s="9"/>
     </row>
-    <row r="210" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="17.25" customHeight="1">
       <c r="A210" s="1">
         <v>207</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>557</v>
-      </c>
       <c r="G210" s="9"/>
     </row>
-    <row r="211" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="17.25" customHeight="1">
       <c r="A211" s="1">
         <v>208</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="G211" s="9"/>
     </row>
-    <row r="212" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="17.25" customHeight="1">
       <c r="A212" s="1">
         <v>209</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>561</v>
-      </c>
       <c r="G212" s="9"/>
     </row>
-    <row r="213" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="17.25" customHeight="1">
       <c r="A213" s="1">
         <v>210</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G213" s="9"/>
     </row>
-    <row r="214" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="17.25" customHeight="1">
       <c r="A214" s="1">
         <v>211</v>
       </c>
+      <c r="B214" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>567</v>
+      </c>
       <c r="G214" s="9"/>
     </row>
-    <row r="215" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="17.25" customHeight="1">
       <c r="A215" s="1">
         <v>212</v>
       </c>
+      <c r="B215" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>569</v>
+      </c>
       <c r="G215" s="9"/>
     </row>
-    <row r="216" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="17.25" customHeight="1">
       <c r="A216" s="1">
         <v>213</v>
       </c>
+      <c r="B216" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>571</v>
+      </c>
       <c r="G216" s="9"/>
     </row>
-    <row r="217" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="17.25" customHeight="1">
       <c r="A217" s="1">
         <v>214</v>
       </c>
+      <c r="B217" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>575</v>
+      </c>
       <c r="G217" s="9"/>
     </row>
-    <row r="218" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="17.25" customHeight="1">
       <c r="A218" s="1">
         <v>215</v>
       </c>
+      <c r="B218" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="G218" s="9"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7">
+      <c r="B219" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>576</v>
+      </c>
       <c r="G219" s="9"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7">
+      <c r="B220" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>578</v>
+      </c>
       <c r="G220" s="9"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7">
       <c r="G221" s="9"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7">
       <c r="G222" s="9"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7">
       <c r="G223" s="9"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7">
       <c r="G224" s="9"/>
     </row>
-    <row r="225" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="7:7">
       <c r="G225" s="9"/>
     </row>
-    <row r="226" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="7:7">
       <c r="G226" s="9"/>
     </row>
-    <row r="227" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="7:7">
       <c r="G227" s="9"/>
     </row>
-    <row r="228" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="7:7">
       <c r="G228" s="9"/>
     </row>
-    <row r="229" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="7:7">
       <c r="G229" s="9"/>
     </row>
-    <row r="230" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="7:7">
       <c r="G230" s="9"/>
     </row>
-    <row r="231" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="7:7">
       <c r="G231" s="9"/>
     </row>
-    <row r="232" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="7:7">
       <c r="G232" s="9"/>
     </row>
-    <row r="233" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="7:7">
       <c r="G233" s="9"/>
     </row>
-    <row r="234" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="7:7">
       <c r="G234" s="9"/>
     </row>
-    <row r="235" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="7:7">
       <c r="G235" s="9"/>
     </row>
-    <row r="236" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="7:7">
       <c r="G236" s="9"/>
     </row>
-    <row r="237" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="7:7">
       <c r="G237" s="9"/>
     </row>
-    <row r="238" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="7:7">
       <c r="G238" s="9"/>
     </row>
-    <row r="239" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="7:7">
       <c r="G239" s="9"/>
     </row>
-    <row r="240" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="7:7">
       <c r="G240" s="9"/>
     </row>
-    <row r="241" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="7:7">
       <c r="G241" s="9"/>
     </row>
-    <row r="242" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="7:7">
       <c r="G242" s="9"/>
     </row>
-    <row r="243" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="7:7">
       <c r="G243" s="9"/>
     </row>
-    <row r="244" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="7:7">
       <c r="G244" s="9"/>
     </row>
-    <row r="245" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="7:7">
       <c r="G245" s="9"/>
     </row>
-    <row r="246" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="7:7">
       <c r="G246" s="9"/>
     </row>
-    <row r="247" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="7:7">
       <c r="G247" s="9"/>
     </row>
-    <row r="248" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="7:7">
       <c r="G248" s="9"/>
     </row>
-    <row r="249" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="7:7">
       <c r="G249" s="9"/>
     </row>
-    <row r="250" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="7:7">
       <c r="G250" s="9"/>
     </row>
-    <row r="251" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="7:7">
       <c r="G251" s="9"/>
     </row>
-    <row r="252" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="7:7">
       <c r="G252" s="9"/>
     </row>
-    <row r="253" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="7:7">
       <c r="G253" s="9"/>
     </row>
-    <row r="254" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="7:7">
       <c r="G254" s="9"/>
     </row>
-    <row r="255" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="7:7">
       <c r="G255" s="9"/>
     </row>
-    <row r="256" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="7:7">
       <c r="G256" s="9"/>
     </row>
-    <row r="257" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="7:7">
       <c r="G257" s="9"/>
     </row>
-    <row r="258" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="7:7">
       <c r="G258" s="9"/>
     </row>
-    <row r="259" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="7:7">
       <c r="G259" s="9"/>
     </row>
-    <row r="260" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="7:7">
       <c r="G260" s="9"/>
     </row>
-    <row r="261" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="7:7">
       <c r="G261" s="9"/>
     </row>
-    <row r="262" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="7:7">
       <c r="G262" s="9"/>
     </row>
-    <row r="263" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="7:7">
       <c r="G263" s="9"/>
     </row>
-    <row r="264" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="7:7">
       <c r="G264" s="9"/>
     </row>
-    <row r="265" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="7:7">
       <c r="G265" s="9"/>
     </row>
-    <row r="266" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="7:7">
       <c r="G266" s="9"/>
     </row>
-    <row r="267" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="7:7">
       <c r="G267" s="9"/>
     </row>
-    <row r="268" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="7:7">
       <c r="G268" s="9"/>
     </row>
-    <row r="269" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="7:7">
       <c r="G269" s="9"/>
     </row>
-    <row r="270" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="7:7">
       <c r="G270" s="9"/>
     </row>
-    <row r="271" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="7:7">
       <c r="G271" s="9"/>
     </row>
-    <row r="272" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="7:7">
       <c r="G272" s="9"/>
     </row>
-    <row r="273" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="7:7">
       <c r="G273" s="9"/>
     </row>
-    <row r="274" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="7:7">
       <c r="G274" s="9"/>
     </row>
-    <row r="275" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="7:7">
       <c r="G275" s="9"/>
     </row>
-    <row r="276" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="7:7">
       <c r="G276" s="9"/>
     </row>
-    <row r="277" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="7:7">
       <c r="G277" s="9"/>
     </row>
-    <row r="278" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="7:7">
       <c r="G278" s="9"/>
     </row>
-    <row r="279" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="7:7">
       <c r="G279" s="9"/>
     </row>
-    <row r="280" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="7:7">
       <c r="G280" s="9"/>
     </row>
-    <row r="281" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="7:7">
       <c r="G281" s="9"/>
     </row>
-    <row r="282" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="7:7">
       <c r="G282" s="9"/>
     </row>
-    <row r="283" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="7:7">
       <c r="G283" s="9"/>
     </row>
-    <row r="284" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="7:7">
       <c r="G284" s="9"/>
     </row>
-    <row r="285" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="7:7">
       <c r="G285" s="9"/>
     </row>
-    <row r="286" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="7:7">
       <c r="G286" s="9"/>
     </row>
-    <row r="287" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="7:7">
       <c r="G287" s="9"/>
     </row>
-    <row r="288" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="7:7">
       <c r="G288" s="9"/>
     </row>
-    <row r="289" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="7:7">
       <c r="G289" s="9"/>
     </row>
-    <row r="290" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="7:7">
       <c r="G290" s="9"/>
     </row>
-    <row r="291" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="7:7">
       <c r="G291" s="9"/>
     </row>
-    <row r="292" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="7:7">
       <c r="G292" s="9"/>
     </row>
-    <row r="293" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="7:7">
       <c r="G293" s="9"/>
     </row>
-    <row r="294" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="7:7">
       <c r="G294" s="9"/>
     </row>
-    <row r="295" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="7:7">
       <c r="G295" s="9"/>
     </row>
-    <row r="296" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="7:7">
       <c r="G296" s="9"/>
     </row>
-    <row r="297" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="7:7">
       <c r="G297" s="9"/>
     </row>
-    <row r="298" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="7:7">
       <c r="G298" s="9"/>
     </row>
-    <row r="299" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="7:7">
       <c r="G299" s="9"/>
     </row>
-    <row r="300" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="7:7">
       <c r="G300" s="9"/>
     </row>
-    <row r="301" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="7:7">
       <c r="G301" s="9"/>
     </row>
-    <row r="302" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="7:7">
       <c r="G302" s="9"/>
     </row>
-    <row r="303" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="7:7">
       <c r="G303" s="9"/>
     </row>
-    <row r="304" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="7:7">
       <c r="G304" s="9"/>
     </row>
-    <row r="305" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="7:7">
       <c r="G305" s="9"/>
     </row>
-    <row r="306" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="7:7">
       <c r="G306" s="9"/>
     </row>
-    <row r="307" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="7:7">
       <c r="G307" s="9"/>
     </row>
-    <row r="308" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="7:7">
       <c r="G308" s="9"/>
     </row>
-    <row r="309" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="7:7">
       <c r="G309" s="9"/>
     </row>
-    <row r="310" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="7:7">
       <c r="G310" s="9"/>
     </row>
-    <row r="311" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="7:7">
       <c r="G311" s="9"/>
     </row>
-    <row r="312" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="7:7">
       <c r="G312" s="9"/>
     </row>
-    <row r="313" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="7:7">
       <c r="G313" s="9"/>
     </row>
-    <row r="314" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="7:7">
       <c r="G314" s="9"/>
     </row>
-    <row r="315" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="7:7">
       <c r="G315" s="9"/>
     </row>
-    <row r="316" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="7:7">
       <c r="G316" s="9"/>
     </row>
-    <row r="317" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="7:7">
       <c r="G317" s="9"/>
     </row>
-    <row r="318" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="7:7">
       <c r="G318" s="9"/>
     </row>
-    <row r="319" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="7:7">
       <c r="G319" s="9"/>
     </row>
-    <row r="320" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="7:7">
       <c r="G320" s="9"/>
     </row>
-    <row r="321" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="7:7">
       <c r="G321" s="9"/>
     </row>
-    <row r="322" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="7:7">
       <c r="G322" s="9"/>
     </row>
-    <row r="323" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="7:7">
       <c r="G323" s="9"/>
     </row>
-    <row r="324" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="7:7">
       <c r="G324" s="9"/>
     </row>
-    <row r="325" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="7:7">
       <c r="G325" s="9"/>
     </row>
-    <row r="326" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="7:7">
       <c r="G326" s="9"/>
     </row>
-    <row r="327" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="7:7">
       <c r="G327" s="9"/>
     </row>
-    <row r="328" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="7:7">
       <c r="G328" s="9"/>
     </row>
-    <row r="329" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="7:7">
       <c r="G329" s="9"/>
     </row>
-    <row r="330" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="7:7">
       <c r="G330" s="9"/>
     </row>
-    <row r="331" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="7:7">
       <c r="G331" s="9"/>
     </row>
-    <row r="332" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="7:7">
       <c r="G332" s="9"/>
     </row>
-    <row r="333" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="7:7">
       <c r="G333" s="9"/>
     </row>
-    <row r="334" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="7:7">
       <c r="G334" s="9"/>
     </row>
-    <row r="335" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="7:7">
       <c r="G335" s="9"/>
     </row>
-    <row r="336" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="7:7">
       <c r="G336" s="9"/>
     </row>
-    <row r="337" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="7:7">
       <c r="G337" s="9"/>
     </row>
-    <row r="338" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="7:7">
       <c r="G338" s="9"/>
     </row>
-    <row r="339" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="7:7">
       <c r="G339" s="9"/>
     </row>
-    <row r="340" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="7:7">
       <c r="G340" s="9"/>
     </row>
-    <row r="341" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="7:7">
       <c r="G341" s="9"/>
     </row>
-    <row r="342" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="7:7">
       <c r="G342" s="9"/>
     </row>
-    <row r="343" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="7:7">
       <c r="G343" s="9"/>
     </row>
-    <row r="344" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="7:7">
       <c r="G344" s="9"/>
     </row>
-    <row r="345" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="7:7">
       <c r="G345" s="9"/>
     </row>
-    <row r="346" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="7:7">
       <c r="G346" s="9"/>
     </row>
-    <row r="347" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="7:7">
       <c r="G347" s="9"/>
     </row>
-    <row r="348" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="7:7">
       <c r="G348" s="9"/>
     </row>
-    <row r="349" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="7:7">
       <c r="G349" s="9"/>
     </row>
-    <row r="350" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="7:7">
       <c r="G350" s="9"/>
     </row>
-    <row r="351" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="7:7">
       <c r="G351" s="9"/>
     </row>
-    <row r="352" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="7:7">
       <c r="G352" s="9"/>
     </row>
-    <row r="353" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="7:7">
       <c r="G353" s="9"/>
     </row>
-    <row r="354" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="7:7">
       <c r="G354" s="9"/>
     </row>
-    <row r="355" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="7:7">
       <c r="G355" s="9"/>
     </row>
-    <row r="356" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="7:7">
       <c r="G356" s="9"/>
     </row>
-    <row r="357" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="7:7">
       <c r="G357" s="9"/>
     </row>
-    <row r="358" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="7:7">
       <c r="G358" s="9"/>
     </row>
-    <row r="359" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="7:7">
       <c r="G359" s="9"/>
     </row>
-    <row r="360" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="7:7">
       <c r="G360" s="9"/>
     </row>
-    <row r="361" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="7:7">
       <c r="G361" s="9"/>
     </row>
-    <row r="362" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="7:7">
       <c r="G362" s="9"/>
     </row>
-    <row r="363" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="7:7">
       <c r="G363" s="9"/>
     </row>
-    <row r="364" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="7:7">
       <c r="G364" s="9"/>
     </row>
-    <row r="365" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="7:7">
       <c r="G365" s="9"/>
     </row>
-    <row r="366" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="7:7">
       <c r="G366" s="9"/>
     </row>
-    <row r="367" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="7:7">
       <c r="G367" s="9"/>
     </row>
-    <row r="368" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="7:7">
       <c r="G368" s="9"/>
     </row>
-    <row r="369" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="7:7">
       <c r="G369" s="9"/>
     </row>
-    <row r="370" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="7:7">
       <c r="G370" s="9"/>
     </row>
-    <row r="371" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="7:7">
       <c r="G371" s="9"/>
     </row>
-    <row r="372" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="7:7">
       <c r="G372" s="9"/>
     </row>
-    <row r="373" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="7:7">
       <c r="G373" s="9"/>
     </row>
-    <row r="374" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="7:7">
       <c r="G374" s="9"/>
     </row>
-    <row r="375" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="7:7">
       <c r="G375" s="9"/>
     </row>
-    <row r="376" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="7:7">
       <c r="G376" s="9"/>
     </row>
-    <row r="377" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="7:7">
       <c r="G377" s="9"/>
     </row>
-    <row r="378" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="7:7">
       <c r="G378" s="9"/>
     </row>
-    <row r="379" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="7:7">
       <c r="G379" s="9"/>
     </row>
-    <row r="380" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="7:7">
       <c r="G380" s="9"/>
     </row>
-    <row r="381" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="7:7">
       <c r="G381" s="9"/>
     </row>
-    <row r="382" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="7:7">
       <c r="G382" s="9"/>
     </row>
-    <row r="383" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="7:7">
       <c r="G383" s="9"/>
     </row>
-    <row r="384" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="7:7">
       <c r="G384" s="9"/>
     </row>
-    <row r="385" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="7:7">
       <c r="G385" s="9"/>
     </row>
-    <row r="386" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="7:7">
       <c r="G386" s="9"/>
     </row>
-    <row r="387" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="7:7">
       <c r="G387" s="9"/>
     </row>
-    <row r="388" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="7:7">
       <c r="G388" s="9"/>
     </row>
-    <row r="389" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="7:7">
       <c r="G389" s="9"/>
     </row>
-    <row r="390" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="7:7">
       <c r="G390" s="9"/>
     </row>
-    <row r="391" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="7:7">
       <c r="G391" s="9"/>
     </row>
-    <row r="392" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="7:7">
       <c r="G392" s="9"/>
     </row>
-    <row r="393" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="7:7">
       <c r="G393" s="9"/>
     </row>
-    <row r="394" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="7:7">
       <c r="G394" s="9"/>
     </row>
-    <row r="395" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="7:7">
       <c r="G395" s="9"/>
     </row>
-    <row r="396" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="7:7">
       <c r="G396" s="9"/>
     </row>
-    <row r="397" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="7:7">
       <c r="G397" s="9"/>
     </row>
-    <row r="398" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="7:7">
       <c r="G398" s="9"/>
     </row>
-    <row r="399" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="7:7">
       <c r="G399" s="9"/>
     </row>
-    <row r="400" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="7:7">
       <c r="G400" s="9"/>
     </row>
-    <row r="401" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="7:7">
       <c r="G401" s="9"/>
     </row>
-    <row r="402" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="7:7">
       <c r="G402" s="9"/>
     </row>
-    <row r="403" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="7:7">
       <c r="G403" s="9"/>
     </row>
-    <row r="404" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="7:7">
       <c r="G404" s="9"/>
     </row>
-    <row r="405" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="7:7">
       <c r="G405" s="9"/>
     </row>
-    <row r="406" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="7:7">
       <c r="G406" s="9"/>
     </row>
-    <row r="407" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="7:7">
       <c r="G407" s="9"/>
     </row>
-    <row r="408" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="7:7">
       <c r="G408" s="9"/>
     </row>
-    <row r="409" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="7:7">
       <c r="G409" s="9"/>
     </row>
-    <row r="410" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="7:7">
       <c r="G410" s="9"/>
     </row>
-    <row r="411" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="7:7">
       <c r="G411" s="9"/>
     </row>
-    <row r="412" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="7:7">
       <c r="G412" s="9"/>
     </row>
-    <row r="413" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="7:7">
       <c r="G413" s="9"/>
     </row>
-    <row r="414" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="7:7">
       <c r="G414" s="9"/>
     </row>
-    <row r="415" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="7:7">
       <c r="G415" s="9"/>
     </row>
-    <row r="416" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="7:7">
       <c r="G416" s="9"/>
     </row>
-    <row r="417" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="7:7">
       <c r="G417" s="9"/>
     </row>
-    <row r="418" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="7:7">
       <c r="G418" s="9"/>
     </row>
-    <row r="419" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="7:7">
       <c r="G419" s="9"/>
     </row>
-    <row r="420" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="7:7">
       <c r="G420" s="9"/>
     </row>
-    <row r="421" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="7:7">
       <c r="G421" s="9"/>
     </row>
-    <row r="422" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="7:7">
       <c r="G422" s="9"/>
     </row>
-    <row r="423" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="7:7">
       <c r="G423" s="9"/>
     </row>
-    <row r="424" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="7:7">
       <c r="G424" s="9"/>
     </row>
-    <row r="425" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="7:7">
       <c r="G425" s="9"/>
     </row>
-    <row r="426" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="7:7">
       <c r="G426" s="9"/>
     </row>
-    <row r="427" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="7:7">
       <c r="G427" s="9"/>
     </row>
-    <row r="428" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="7:7">
       <c r="G428" s="9"/>
     </row>
-    <row r="429" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="7:7">
       <c r="G429" s="9"/>
     </row>
-    <row r="430" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="7:7">
       <c r="G430" s="9"/>
     </row>
-    <row r="431" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="7:7">
       <c r="G431" s="9"/>
     </row>
-    <row r="432" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="7:7">
       <c r="G432" s="9"/>
     </row>
-    <row r="433" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="7:7">
       <c r="G433" s="9"/>
     </row>
-    <row r="434" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="7:7">
       <c r="G434" s="9"/>
     </row>
-    <row r="435" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="7:7">
       <c r="G435" s="9"/>
     </row>
-    <row r="436" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="7:7">
       <c r="G436" s="9"/>
     </row>
-    <row r="437" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="7:7">
       <c r="G437" s="9"/>
     </row>
-    <row r="438" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="7:7">
       <c r="G438" s="9"/>
     </row>
-    <row r="439" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="7:7">
       <c r="G439" s="9"/>
     </row>
-    <row r="440" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="7:7">
       <c r="G440" s="9"/>
     </row>
-    <row r="441" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="7:7">
       <c r="G441" s="9"/>
     </row>
-    <row r="442" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="7:7">
       <c r="G442" s="9"/>
     </row>
-    <row r="443" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="7:7">
       <c r="G443" s="9"/>
     </row>
-    <row r="444" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="7:7">
       <c r="G444" s="9"/>
     </row>
-    <row r="445" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="7:7">
       <c r="G445" s="9"/>
     </row>
-    <row r="446" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="7:7">
       <c r="G446" s="9"/>
     </row>
-    <row r="447" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="7:7">
       <c r="G447" s="9"/>
     </row>
-    <row r="448" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="7:7">
       <c r="G448" s="9"/>
     </row>
-    <row r="449" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="7:7">
       <c r="G449" s="9"/>
     </row>
-    <row r="450" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="7:7">
       <c r="G450" s="9"/>
     </row>
-    <row r="451" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="7:7">
       <c r="G451" s="9"/>
     </row>
-    <row r="452" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="7:7">
       <c r="G452" s="9"/>
     </row>
-    <row r="453" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="7:7">
       <c r="G453" s="9"/>
     </row>
-    <row r="454" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="7:7">
       <c r="G454" s="9"/>
     </row>
-    <row r="455" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="7:7">
       <c r="G455" s="9"/>
     </row>
-    <row r="456" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="7:7">
       <c r="G456" s="9"/>
     </row>
-    <row r="457" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="7:7">
       <c r="G457" s="9"/>
     </row>
-    <row r="458" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="7:7">
       <c r="G458" s="9"/>
     </row>
-    <row r="459" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="7:7">
       <c r="G459" s="9"/>
     </row>
-    <row r="460" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="7:7">
       <c r="G460" s="9"/>
     </row>
-    <row r="461" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="7:7">
       <c r="G461" s="9"/>
     </row>
-    <row r="462" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="7:7">
       <c r="G462" s="9"/>
     </row>
-    <row r="463" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="7:7">
       <c r="G463" s="9"/>
     </row>
-    <row r="464" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="7:7">
       <c r="G464" s="9"/>
     </row>
-    <row r="465" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="7:7">
       <c r="G465" s="9"/>
     </row>
-    <row r="466" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="7:7">
       <c r="G466" s="9"/>
     </row>
-    <row r="467" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="7:7">
       <c r="G467" s="9"/>
     </row>
-    <row r="468" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="7:7">
       <c r="G468" s="9"/>
     </row>
-    <row r="469" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="7:7">
       <c r="G469" s="9"/>
     </row>
-    <row r="470" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="7:7">
       <c r="G470" s="9"/>
     </row>
-    <row r="471" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="7:7">
       <c r="G471" s="9"/>
     </row>
-    <row r="472" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="7:7">
       <c r="G472" s="9"/>
     </row>
-    <row r="473" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="7:7">
       <c r="G473" s="9"/>
     </row>
-    <row r="474" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="7:7">
       <c r="G474" s="9"/>
     </row>
-    <row r="475" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="7:7">
       <c r="G475" s="9"/>
     </row>
-    <row r="476" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="7:7">
       <c r="G476" s="9"/>
     </row>
-    <row r="477" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="7:7">
       <c r="G477" s="9"/>
     </row>
-    <row r="478" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="7:7">
       <c r="G478" s="9"/>
     </row>
-    <row r="479" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="7:7">
       <c r="G479" s="9"/>
     </row>
-    <row r="480" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="7:7">
       <c r="G480" s="9"/>
     </row>
-    <row r="481" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="7:7">
       <c r="G481" s="9"/>
     </row>
-    <row r="482" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="7:7">
       <c r="G482" s="9"/>
     </row>
-    <row r="483" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="7:7">
       <c r="G483" s="9"/>
     </row>
-    <row r="484" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="7:7">
       <c r="G484" s="9"/>
     </row>
-    <row r="485" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="7:7">
       <c r="G485" s="9"/>
     </row>
-    <row r="486" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="7:7">
       <c r="G486" s="9"/>
     </row>
-    <row r="487" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="7:7">
       <c r="G487" s="9"/>
     </row>
-    <row r="488" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="7:7">
       <c r="G488" s="9"/>
     </row>
-    <row r="489" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="7:7">
       <c r="G489" s="9"/>
     </row>
-    <row r="490" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="7:7">
       <c r="G490" s="9"/>
     </row>
-    <row r="491" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="7:7">
       <c r="G491" s="9"/>
     </row>
-    <row r="492" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="7:7">
       <c r="G492" s="9"/>
     </row>
-    <row r="493" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="7:7">
       <c r="G493" s="9"/>
     </row>
-    <row r="494" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="7:7">
       <c r="G494" s="9"/>
     </row>
-    <row r="495" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="7:7">
       <c r="G495" s="9"/>
     </row>
-    <row r="496" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="7:7">
       <c r="G496" s="9"/>
     </row>
-    <row r="497" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="7:7">
       <c r="G497" s="9"/>
     </row>
-    <row r="498" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="7:7">
       <c r="G498" s="9"/>
     </row>
-    <row r="499" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="7:7">
       <c r="G499" s="9"/>
     </row>
-    <row r="500" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="7:7">
       <c r="G500" s="9"/>
     </row>
-    <row r="501" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="7:7">
       <c r="G501" s="9"/>
     </row>
-    <row r="502" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="7:7">
       <c r="G502" s="9"/>
     </row>
-    <row r="503" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="7:7">
       <c r="G503" s="9"/>
     </row>
-    <row r="504" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="7:7">
       <c r="G504" s="9"/>
     </row>
-    <row r="505" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="7:7">
       <c r="G505" s="9"/>
     </row>
-    <row r="506" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="7:7">
       <c r="G506" s="9"/>
     </row>
-    <row r="507" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="7:7">
       <c r="G507" s="9"/>
     </row>
-    <row r="508" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="7:7">
       <c r="G508" s="9"/>
     </row>
-    <row r="509" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="7:7">
       <c r="G509" s="9"/>
     </row>
-    <row r="510" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="7:7">
       <c r="G510" s="9"/>
     </row>
-    <row r="511" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="7:7">
       <c r="G511" s="9"/>
     </row>
-    <row r="512" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="7:7">
       <c r="G512" s="9"/>
     </row>
-    <row r="513" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="7:7">
       <c r="G513" s="9"/>
     </row>
-    <row r="514" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="7:7">
       <c r="G514" s="9"/>
     </row>
-    <row r="515" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="7:7">
       <c r="G515" s="9"/>
     </row>
-    <row r="516" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="7:7">
       <c r="G516" s="9"/>
     </row>
-    <row r="517" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="7:7">
       <c r="G517" s="9"/>
     </row>
-    <row r="518" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="7:7">
       <c r="G518" s="9"/>
     </row>
-    <row r="519" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="7:7">
       <c r="G519" s="9"/>
     </row>
-    <row r="520" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="7:7">
       <c r="G520" s="9"/>
     </row>
-    <row r="521" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="7:7">
       <c r="G521" s="9"/>
     </row>
-    <row r="522" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="7:7">
       <c r="G522" s="9"/>
     </row>
-    <row r="523" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="7:7">
       <c r="G523" s="9"/>
     </row>
-    <row r="524" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="7:7">
       <c r="G524" s="9"/>
     </row>
-    <row r="525" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="7:7">
       <c r="G525" s="9"/>
     </row>
-    <row r="526" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="7:7">
       <c r="G526" s="9"/>
     </row>
-    <row r="527" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="7:7">
       <c r="G527" s="9"/>
     </row>
-    <row r="528" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="7:7">
       <c r="G528" s="9"/>
     </row>
-    <row r="529" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="7:7">
       <c r="G529" s="9"/>
     </row>
-    <row r="530" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="7:7">
       <c r="G530" s="9"/>
     </row>
-    <row r="531" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="7:7">
       <c r="G531" s="9"/>
     </row>
-    <row r="532" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="7:7">
       <c r="G532" s="9"/>
     </row>
-    <row r="533" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="7:7">
       <c r="G533" s="9"/>
     </row>
-    <row r="534" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="534" spans="7:7">
       <c r="G534" s="9"/>
     </row>
-    <row r="535" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="7:7">
       <c r="G535" s="9"/>
     </row>
-    <row r="536" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="7:7">
       <c r="G536" s="9"/>
     </row>
-    <row r="537" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="537" spans="7:7">
       <c r="G537" s="9"/>
     </row>
-    <row r="538" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="538" spans="7:7">
       <c r="G538" s="9"/>
     </row>
-    <row r="539" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="7:7">
       <c r="G539" s="9"/>
     </row>
-    <row r="540" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="7:7">
       <c r="G540" s="9"/>
     </row>
-    <row r="541" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="541" spans="7:7">
       <c r="G541" s="9"/>
     </row>
-    <row r="542" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="542" spans="7:7">
       <c r="G542" s="9"/>
     </row>
-    <row r="543" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="7:7">
       <c r="G543" s="9"/>
     </row>
-    <row r="544" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="544" spans="7:7">
       <c r="G544" s="9"/>
     </row>
-    <row r="545" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="7:7">
       <c r="G545" s="9"/>
     </row>
-    <row r="546" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="7:7">
       <c r="G546" s="9"/>
     </row>
-    <row r="547" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="7:7">
       <c r="G547" s="9"/>
     </row>
-    <row r="548" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="7:7">
       <c r="G548" s="9"/>
     </row>
-    <row r="549" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="549" spans="7:7">
       <c r="G549" s="9"/>
     </row>
-    <row r="550" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="7:7">
       <c r="G550" s="9"/>
     </row>
-    <row r="551" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="551" spans="7:7">
       <c r="G551" s="9"/>
     </row>
-    <row r="552" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="552" spans="7:7">
       <c r="G552" s="9"/>
     </row>
-    <row r="553" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="553" spans="7:7">
       <c r="G553" s="9"/>
     </row>
-    <row r="554" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="554" spans="7:7">
       <c r="G554" s="9"/>
     </row>
-    <row r="555" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="555" spans="7:7">
       <c r="G555" s="9"/>
     </row>
-    <row r="556" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="556" spans="7:7">
       <c r="G556" s="9"/>
     </row>
-    <row r="557" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="7:7">
       <c r="G557" s="9"/>
     </row>
-    <row r="558" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="558" spans="7:7">
       <c r="G558" s="9"/>
     </row>
-    <row r="559" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="559" spans="7:7">
       <c r="G559" s="9"/>
     </row>
-    <row r="560" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="560" spans="7:7">
       <c r="G560" s="9"/>
     </row>
-    <row r="561" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="561" spans="7:7">
       <c r="G561" s="9"/>
     </row>
-    <row r="562" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="562" spans="7:7">
       <c r="G562" s="9"/>
     </row>
-    <row r="563" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="563" spans="7:7">
       <c r="G563" s="9"/>
     </row>
-    <row r="564" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="564" spans="7:7">
       <c r="G564" s="9"/>
     </row>
-    <row r="565" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="565" spans="7:7">
       <c r="G565" s="9"/>
     </row>
-    <row r="566" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="566" spans="7:7">
       <c r="G566" s="9"/>
     </row>
-    <row r="567" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="567" spans="7:7">
       <c r="G567" s="9"/>
     </row>
-    <row r="568" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="568" spans="7:7">
       <c r="G568" s="9"/>
     </row>
-    <row r="569" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="569" spans="7:7">
       <c r="G569" s="9"/>
     </row>
-    <row r="570" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="570" spans="7:7">
       <c r="G570" s="9"/>
     </row>
-    <row r="571" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="571" spans="7:7">
       <c r="G571" s="9"/>
     </row>
-    <row r="572" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="572" spans="7:7">
       <c r="G572" s="9"/>
     </row>
-    <row r="573" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="573" spans="7:7">
       <c r="G573" s="9"/>
     </row>
-    <row r="574" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="574" spans="7:7">
       <c r="G574" s="9"/>
     </row>
-    <row r="575" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="575" spans="7:7">
       <c r="G575" s="9"/>
     </row>
-    <row r="576" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="576" spans="7:7">
       <c r="G576" s="9"/>
     </row>
-    <row r="577" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="577" spans="7:7">
       <c r="G577" s="9"/>
     </row>
-    <row r="578" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="578" spans="7:7">
       <c r="G578" s="9"/>
     </row>
-    <row r="579" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="579" spans="7:7">
       <c r="G579" s="9"/>
     </row>
-    <row r="580" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="580" spans="7:7">
       <c r="G580" s="9"/>
     </row>
-    <row r="581" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="581" spans="7:7">
       <c r="G581" s="9"/>
     </row>
-    <row r="582" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="582" spans="7:7">
       <c r="G582" s="9"/>
     </row>
-    <row r="583" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="583" spans="7:7">
       <c r="G583" s="9"/>
     </row>
-    <row r="584" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="584" spans="7:7">
       <c r="G584" s="9"/>
     </row>
-    <row r="585" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="585" spans="7:7">
       <c r="G585" s="9"/>
     </row>
-    <row r="586" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="586" spans="7:7">
       <c r="G586" s="9"/>
     </row>
-    <row r="587" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="587" spans="7:7">
       <c r="G587" s="9"/>
     </row>
-    <row r="588" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="588" spans="7:7">
       <c r="G588" s="9"/>
     </row>
-    <row r="589" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="589" spans="7:7">
       <c r="G589" s="9"/>
     </row>
-    <row r="590" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="590" spans="7:7">
       <c r="G590" s="9"/>
     </row>
-    <row r="591" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="591" spans="7:7">
       <c r="G591" s="9"/>
     </row>
-    <row r="592" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="592" spans="7:7">
       <c r="G592" s="9"/>
     </row>
-    <row r="593" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="593" spans="7:7">
       <c r="G593" s="9"/>
     </row>
-    <row r="594" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="594" spans="7:7">
       <c r="G594" s="9"/>
     </row>
-    <row r="595" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="595" spans="7:7">
       <c r="G595" s="9"/>
     </row>
-    <row r="596" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="596" spans="7:7">
       <c r="G596" s="9"/>
     </row>
-    <row r="597" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="597" spans="7:7">
       <c r="G597" s="9"/>
     </row>
-    <row r="598" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="598" spans="7:7">
       <c r="G598" s="9"/>
     </row>
-    <row r="599" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="599" spans="7:7">
       <c r="G599" s="9"/>
     </row>
-    <row r="600" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="600" spans="7:7">
       <c r="G600" s="9"/>
     </row>
-    <row r="601" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="601" spans="7:7">
       <c r="G601" s="9"/>
     </row>
-    <row r="602" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="602" spans="7:7">
       <c r="G602" s="9"/>
     </row>
-    <row r="603" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="603" spans="7:7">
       <c r="G603" s="9"/>
     </row>
-    <row r="604" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="604" spans="7:7">
       <c r="G604" s="9"/>
     </row>
-    <row r="605" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="605" spans="7:7">
       <c r="G605" s="9"/>
     </row>
-    <row r="606" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="606" spans="7:7">
       <c r="G606" s="9"/>
     </row>
-    <row r="607" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="607" spans="7:7">
       <c r="G607" s="9"/>
     </row>
-    <row r="608" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="608" spans="7:7">
       <c r="G608" s="9"/>
     </row>
-    <row r="609" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="609" spans="7:7">
       <c r="G609" s="9"/>
     </row>
-    <row r="610" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="610" spans="7:7">
       <c r="G610" s="9"/>
     </row>
-    <row r="611" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="611" spans="7:7">
       <c r="G611" s="9"/>
     </row>
-    <row r="612" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="612" spans="7:7">
       <c r="G612" s="9"/>
     </row>
-    <row r="613" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="613" spans="7:7">
       <c r="G613" s="9"/>
     </row>
-    <row r="614" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="614" spans="7:7">
       <c r="G614" s="9"/>
     </row>
-    <row r="615" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="615" spans="7:7">
       <c r="G615" s="9"/>
     </row>
-    <row r="616" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="616" spans="7:7">
       <c r="G616" s="9"/>
     </row>
-    <row r="617" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="617" spans="7:7">
       <c r="G617" s="9"/>
     </row>
-    <row r="618" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="618" spans="7:7">
       <c r="G618" s="9"/>
     </row>
-    <row r="619" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="619" spans="7:7">
       <c r="G619" s="9"/>
     </row>
-    <row r="620" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="620" spans="7:7">
       <c r="G620" s="9"/>
     </row>
-    <row r="621" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="621" spans="7:7">
       <c r="G621" s="9"/>
     </row>
-    <row r="622" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="622" spans="7:7">
       <c r="G622" s="9"/>
     </row>
-    <row r="623" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="623" spans="7:7">
       <c r="G623" s="9"/>
     </row>
-    <row r="624" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="624" spans="7:7">
       <c r="G624" s="9"/>
     </row>
-    <row r="625" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="625" spans="7:7">
       <c r="G625" s="9"/>
     </row>
-    <row r="626" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="626" spans="7:7">
       <c r="G626" s="9"/>
     </row>
-    <row r="627" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="627" spans="7:7">
       <c r="G627" s="9"/>
     </row>
-    <row r="628" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="628" spans="7:7">
       <c r="G628" s="9"/>
     </row>
-    <row r="629" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="629" spans="7:7">
       <c r="G629" s="9"/>
     </row>
-    <row r="630" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="630" spans="7:7">
       <c r="G630" s="9"/>
     </row>
-    <row r="631" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="631" spans="7:7">
       <c r="G631" s="9"/>
     </row>
-    <row r="632" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="632" spans="7:7">
       <c r="G632" s="9"/>
     </row>
-    <row r="633" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="633" spans="7:7">
       <c r="G633" s="9"/>
     </row>
-    <row r="634" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="634" spans="7:7">
       <c r="G634" s="9"/>
     </row>
-    <row r="635" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="635" spans="7:7">
       <c r="G635" s="9"/>
     </row>
-    <row r="636" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="636" spans="7:7">
       <c r="G636" s="9"/>
     </row>
-    <row r="637" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="637" spans="7:7">
       <c r="G637" s="9"/>
     </row>
-    <row r="638" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="638" spans="7:7">
       <c r="G638" s="9"/>
     </row>
-    <row r="639" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="639" spans="7:7">
       <c r="G639" s="9"/>
     </row>
-    <row r="640" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="640" spans="7:7">
       <c r="G640" s="9"/>
     </row>
-    <row r="641" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="641" spans="7:7">
       <c r="G641" s="9"/>
     </row>
-    <row r="642" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="642" spans="7:7">
       <c r="G642" s="9"/>
     </row>
-    <row r="643" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="643" spans="7:7">
       <c r="G643" s="9"/>
     </row>
-    <row r="644" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="644" spans="7:7">
       <c r="G644" s="9"/>
     </row>
-    <row r="645" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="645" spans="7:7">
       <c r="G645" s="9"/>
     </row>
-    <row r="646" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="646" spans="7:7">
       <c r="G646" s="9"/>
     </row>
-    <row r="647" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="647" spans="7:7">
       <c r="G647" s="9"/>
     </row>
-    <row r="648" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="648" spans="7:7">
       <c r="G648" s="9"/>
     </row>
-    <row r="649" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="649" spans="7:7">
       <c r="G649" s="9"/>
     </row>
-    <row r="650" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="650" spans="7:7">
       <c r="G650" s="9"/>
     </row>
-    <row r="651" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="651" spans="7:7">
       <c r="G651" s="9"/>
     </row>
-    <row r="652" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="652" spans="7:7">
       <c r="G652" s="9"/>
     </row>
-    <row r="653" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="653" spans="7:7">
       <c r="G653" s="9"/>
     </row>
-    <row r="654" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="654" spans="7:7">
       <c r="G654" s="9"/>
     </row>
-    <row r="655" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="655" spans="7:7">
       <c r="G655" s="9"/>
     </row>
-    <row r="656" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="656" spans="7:7">
       <c r="G656" s="9"/>
     </row>
-    <row r="657" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="657" spans="7:7">
       <c r="G657" s="9"/>
     </row>
-    <row r="658" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="658" spans="7:7">
       <c r="G658" s="9"/>
     </row>
-    <row r="659" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="659" spans="7:7">
       <c r="G659" s="9"/>
     </row>
-    <row r="660" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="660" spans="7:7">
       <c r="G660" s="9"/>
     </row>
-    <row r="661" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="661" spans="7:7">
       <c r="G661" s="9"/>
     </row>
-    <row r="662" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="662" spans="7:7">
       <c r="G662" s="9"/>
     </row>
-    <row r="663" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="663" spans="7:7">
       <c r="G663" s="9"/>
     </row>
-    <row r="664" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="664" spans="7:7">
       <c r="G664" s="9"/>
     </row>
-    <row r="665" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="665" spans="7:7">
       <c r="G665" s="9"/>
     </row>
-    <row r="666" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="666" spans="7:7">
       <c r="G666" s="9"/>
     </row>
-    <row r="667" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="667" spans="7:7">
       <c r="G667" s="9"/>
     </row>
-    <row r="668" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="668" spans="7:7">
       <c r="G668" s="9"/>
     </row>
-    <row r="669" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="669" spans="7:7">
       <c r="G669" s="9"/>
     </row>
-    <row r="670" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="670" spans="7:7">
       <c r="G670" s="9"/>
     </row>
-    <row r="671" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="671" spans="7:7">
       <c r="G671" s="9"/>
     </row>
-    <row r="672" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="672" spans="7:7">
       <c r="G672" s="9"/>
     </row>
-    <row r="673" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="673" spans="7:7">
       <c r="G673" s="9"/>
     </row>
-    <row r="674" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="674" spans="7:7">
       <c r="G674" s="9"/>
     </row>
-    <row r="675" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="675" spans="7:7">
       <c r="G675" s="9"/>
     </row>
-    <row r="676" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="676" spans="7:7">
       <c r="G676" s="9"/>
     </row>
-    <row r="677" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="677" spans="7:7">
       <c r="G677" s="9"/>
     </row>
-    <row r="678" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="678" spans="7:7">
       <c r="G678" s="9"/>
     </row>
-    <row r="679" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="679" spans="7:7">
       <c r="G679" s="9"/>
     </row>
-    <row r="680" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="680" spans="7:7">
       <c r="G680" s="9"/>
     </row>
-    <row r="681" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="681" spans="7:7">
       <c r="G681" s="9"/>
     </row>
-    <row r="682" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="682" spans="7:7">
       <c r="G682" s="9"/>
     </row>
-    <row r="683" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="683" spans="7:7">
       <c r="G683" s="9"/>
     </row>
-    <row r="684" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="684" spans="7:7">
       <c r="G684" s="9"/>
     </row>
-    <row r="685" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="685" spans="7:7">
       <c r="G685" s="9"/>
     </row>
-    <row r="686" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="686" spans="7:7">
       <c r="G686" s="9"/>
     </row>
-    <row r="687" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="687" spans="7:7">
       <c r="G687" s="9"/>
     </row>
-    <row r="688" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="688" spans="7:7">
       <c r="G688" s="9"/>
     </row>
-    <row r="689" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="689" spans="7:7">
       <c r="G689" s="9"/>
     </row>
-    <row r="690" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="690" spans="7:7">
       <c r="G690" s="9"/>
     </row>
-    <row r="691" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="691" spans="7:7">
       <c r="G691" s="9"/>
     </row>
-    <row r="692" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="692" spans="7:7">
       <c r="G692" s="9"/>
     </row>
-    <row r="693" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="693" spans="7:7">
       <c r="G693" s="9"/>
     </row>
-    <row r="694" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="694" spans="7:7">
       <c r="G694" s="9"/>
     </row>
-    <row r="695" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="695" spans="7:7">
       <c r="G695" s="9"/>
     </row>
-    <row r="696" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="696" spans="7:7">
       <c r="G696" s="9"/>
     </row>
-    <row r="697" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="697" spans="7:7">
       <c r="G697" s="9"/>
     </row>
-    <row r="698" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="698" spans="7:7">
       <c r="G698" s="9"/>
     </row>
-    <row r="699" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="699" spans="7:7">
       <c r="G699" s="9"/>
     </row>
-    <row r="700" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="700" spans="7:7">
       <c r="G700" s="9"/>
     </row>
-    <row r="701" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="701" spans="7:7">
       <c r="G701" s="9"/>
     </row>
-    <row r="702" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="702" spans="7:7">
       <c r="G702" s="9"/>
     </row>
-    <row r="703" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="703" spans="7:7">
       <c r="G703" s="9"/>
     </row>
-    <row r="704" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="704" spans="7:7">
       <c r="G704" s="9"/>
     </row>
-    <row r="705" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="705" spans="7:7">
       <c r="G705" s="9"/>
     </row>
-    <row r="706" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="706" spans="7:7">
       <c r="G706" s="9"/>
     </row>
-    <row r="707" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="707" spans="7:7">
       <c r="G707" s="9"/>
     </row>
-    <row r="708" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="708" spans="7:7">
       <c r="G708" s="9"/>
     </row>
-    <row r="709" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="709" spans="7:7">
       <c r="G709" s="9"/>
     </row>
-    <row r="710" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="710" spans="7:7">
       <c r="G710" s="9"/>
     </row>
-    <row r="711" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="711" spans="7:7">
       <c r="G711" s="9"/>
     </row>
-    <row r="712" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="712" spans="7:7">
       <c r="G712" s="9"/>
     </row>
-    <row r="713" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="713" spans="7:7">
       <c r="G713" s="9"/>
     </row>
-    <row r="714" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="714" spans="7:7">
       <c r="G714" s="9"/>
     </row>
-    <row r="715" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="715" spans="7:7">
       <c r="G715" s="9"/>
     </row>
-    <row r="716" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="716" spans="7:7">
       <c r="G716" s="9"/>
     </row>
-    <row r="717" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="717" spans="7:7">
       <c r="G717" s="9"/>
     </row>
-    <row r="718" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="718" spans="7:7">
       <c r="G718" s="9"/>
     </row>
-    <row r="719" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="719" spans="7:7">
       <c r="G719" s="9"/>
     </row>
-    <row r="720" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="720" spans="7:7">
       <c r="G720" s="9"/>
     </row>
-    <row r="721" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="721" spans="7:7">
       <c r="G721" s="9"/>
     </row>
-    <row r="722" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="722" spans="7:7">
       <c r="G722" s="9"/>
     </row>
-    <row r="723" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="723" spans="7:7">
       <c r="G723" s="9"/>
     </row>
-    <row r="724" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="724" spans="7:7">
       <c r="G724" s="9"/>
     </row>
-    <row r="725" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="725" spans="7:7">
       <c r="G725" s="9"/>
     </row>
-    <row r="726" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="726" spans="7:7">
       <c r="G726" s="9"/>
     </row>
-    <row r="727" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="727" spans="7:7">
       <c r="G727" s="9"/>
     </row>
-    <row r="728" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="728" spans="7:7">
       <c r="G728" s="9"/>
     </row>
-    <row r="729" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="729" spans="7:7">
       <c r="G729" s="9"/>
     </row>
-    <row r="730" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="730" spans="7:7">
       <c r="G730" s="9"/>
     </row>
-    <row r="731" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="731" spans="7:7">
       <c r="G731" s="9"/>
     </row>
-    <row r="732" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="732" spans="7:7">
       <c r="G732" s="9"/>
     </row>
-    <row r="733" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="733" spans="7:7">
       <c r="G733" s="9"/>
     </row>
-    <row r="734" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="734" spans="7:7">
       <c r="G734" s="9"/>
     </row>
-    <row r="735" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="735" spans="7:7">
       <c r="G735" s="9"/>
     </row>
-    <row r="736" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="736" spans="7:7">
       <c r="G736" s="9"/>
     </row>
-    <row r="737" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="737" spans="7:7">
       <c r="G737" s="9"/>
     </row>
-    <row r="738" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="738" spans="7:7">
       <c r="G738" s="9"/>
     </row>
-    <row r="739" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="739" spans="7:7">
       <c r="G739" s="9"/>
     </row>
-    <row r="740" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="740" spans="7:7">
       <c r="G740" s="9"/>
     </row>
-    <row r="741" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="741" spans="7:7">
       <c r="G741" s="9"/>
     </row>
-    <row r="742" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="742" spans="7:7">
       <c r="G742" s="9"/>
     </row>
-    <row r="743" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="743" spans="7:7">
       <c r="G743" s="9"/>
     </row>
-    <row r="744" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="744" spans="7:7">
       <c r="G744" s="9"/>
     </row>
-    <row r="745" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="745" spans="7:7">
       <c r="G745" s="9"/>
     </row>
-    <row r="746" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="746" spans="7:7">
       <c r="G746" s="9"/>
     </row>
-    <row r="747" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="747" spans="7:7">
       <c r="G747" s="9"/>
     </row>
-    <row r="748" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="748" spans="7:7">
       <c r="G748" s="9"/>
     </row>
-    <row r="749" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="749" spans="7:7">
       <c r="G749" s="9"/>
     </row>
-    <row r="750" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="750" spans="7:7">
       <c r="G750" s="9"/>
     </row>
-    <row r="751" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="751" spans="7:7">
       <c r="G751" s="9"/>
     </row>
-    <row r="752" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="752" spans="7:7">
       <c r="G752" s="9"/>
     </row>
-    <row r="753" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="753" spans="7:7">
       <c r="G753" s="9"/>
     </row>
-    <row r="754" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="754" spans="7:7">
       <c r="G754" s="9"/>
     </row>
-    <row r="755" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="755" spans="7:7">
       <c r="G755" s="9"/>
     </row>
-    <row r="756" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="756" spans="7:7">
       <c r="G756" s="9"/>
     </row>
-    <row r="757" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="757" spans="7:7">
       <c r="G757" s="9"/>
     </row>
-    <row r="758" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="758" spans="7:7">
       <c r="G758" s="9"/>
     </row>
-    <row r="759" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="759" spans="7:7">
       <c r="G759" s="9"/>
     </row>
-    <row r="760" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="760" spans="7:7">
       <c r="G760" s="9"/>
     </row>
-    <row r="761" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="761" spans="7:7">
       <c r="G761" s="9"/>
     </row>
-    <row r="762" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="762" spans="7:7">
       <c r="G762" s="9"/>
     </row>
-    <row r="763" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="763" spans="7:7">
       <c r="G763" s="9"/>
     </row>
-    <row r="764" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="764" spans="7:7">
       <c r="G764" s="9"/>
     </row>
-    <row r="765" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="765" spans="7:7">
       <c r="G765" s="9"/>
     </row>
-    <row r="766" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="766" spans="7:7">
       <c r="G766" s="9"/>
     </row>
-    <row r="767" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="767" spans="7:7">
       <c r="G767" s="9"/>
     </row>
-    <row r="768" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="768" spans="7:7">
       <c r="G768" s="9"/>
     </row>
-    <row r="769" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="769" spans="7:7">
       <c r="G769" s="9"/>
     </row>
-    <row r="770" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="770" spans="7:7">
       <c r="G770" s="9"/>
     </row>
-    <row r="771" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="771" spans="7:7">
       <c r="G771" s="9"/>
     </row>
-    <row r="772" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="772" spans="7:7">
       <c r="G772" s="9"/>
     </row>
-    <row r="773" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="773" spans="7:7">
       <c r="G773" s="9"/>
     </row>
-    <row r="774" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="774" spans="7:7">
       <c r="G774" s="9"/>
     </row>
-    <row r="775" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="775" spans="7:7">
       <c r="G775" s="9"/>
     </row>
-    <row r="776" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="776" spans="7:7">
       <c r="G776" s="9"/>
     </row>
-    <row r="777" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="777" spans="7:7">
       <c r="G777" s="9"/>
     </row>
-    <row r="778" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="778" spans="7:7">
       <c r="G778" s="9"/>
     </row>
-    <row r="779" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="779" spans="7:7">
       <c r="G779" s="9"/>
     </row>
-    <row r="780" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="780" spans="7:7">
       <c r="G780" s="9"/>
     </row>
-    <row r="781" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="781" spans="7:7">
       <c r="G781" s="9"/>
     </row>
-    <row r="782" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="782" spans="7:7">
       <c r="G782" s="9"/>
     </row>
-    <row r="783" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="783" spans="7:7">
       <c r="G783" s="9"/>
     </row>
-    <row r="784" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="784" spans="7:7">
       <c r="G784" s="9"/>
     </row>
-    <row r="785" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="785" spans="7:7">
       <c r="G785" s="9"/>
     </row>
-    <row r="786" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="786" spans="7:7">
       <c r="G786" s="9"/>
     </row>
-    <row r="787" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="787" spans="7:7">
       <c r="G787" s="9"/>
     </row>
-    <row r="788" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="788" spans="7:7">
       <c r="G788" s="9"/>
     </row>
-    <row r="789" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="789" spans="7:7">
       <c r="G789" s="9"/>
     </row>
-    <row r="790" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="790" spans="7:7">
       <c r="G790" s="9"/>
     </row>
-    <row r="791" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="791" spans="7:7">
       <c r="G791" s="9"/>
     </row>
-    <row r="792" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="792" spans="7:7">
       <c r="G792" s="9"/>
     </row>
-    <row r="793" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="793" spans="7:7">
       <c r="G793" s="9"/>
     </row>
-    <row r="794" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="794" spans="7:7">
       <c r="G794" s="9"/>
     </row>
-    <row r="795" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="795" spans="7:7">
       <c r="G795" s="9"/>
     </row>
-    <row r="796" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="796" spans="7:7">
       <c r="G796" s="9"/>
     </row>
-    <row r="797" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="797" spans="7:7">
       <c r="G797" s="9"/>
     </row>
-    <row r="798" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="798" spans="7:7">
       <c r="G798" s="9"/>
     </row>
-    <row r="799" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="799" spans="7:7">
       <c r="G799" s="9"/>
     </row>
-    <row r="800" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="800" spans="7:7">
       <c r="G800" s="9"/>
     </row>
-    <row r="801" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="801" spans="7:7">
       <c r="G801" s="9"/>
     </row>
-    <row r="802" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="802" spans="7:7">
       <c r="G802" s="9"/>
     </row>
-    <row r="803" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="803" spans="7:7">
       <c r="G803" s="9"/>
     </row>
-    <row r="804" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="804" spans="7:7">
       <c r="G804" s="9"/>
     </row>
-    <row r="805" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="805" spans="7:7">
       <c r="G805" s="9"/>
     </row>
-    <row r="806" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="806" spans="7:7">
       <c r="G806" s="9"/>
     </row>
-    <row r="807" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="807" spans="7:7">
       <c r="G807" s="9"/>
     </row>
-    <row r="808" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="808" spans="7:7">
       <c r="G808" s="9"/>
     </row>
-    <row r="809" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="809" spans="7:7">
       <c r="G809" s="9"/>
     </row>
-    <row r="810" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="810" spans="7:7">
       <c r="G810" s="9"/>
     </row>
-    <row r="811" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="811" spans="7:7">
       <c r="G811" s="9"/>
     </row>
-    <row r="812" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="812" spans="7:7">
       <c r="G812" s="9"/>
     </row>
-    <row r="813" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="813" spans="7:7">
       <c r="G813" s="9"/>
     </row>
-    <row r="814" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="814" spans="7:7">
       <c r="G814" s="9"/>
     </row>
-    <row r="815" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="815" spans="7:7">
       <c r="G815" s="9"/>
     </row>
-    <row r="816" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="816" spans="7:7">
       <c r="G816" s="9"/>
     </row>
-    <row r="817" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="817" spans="7:7">
       <c r="G817" s="9"/>
     </row>
-    <row r="818" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="818" spans="7:7">
       <c r="G818" s="9"/>
     </row>
-    <row r="819" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="819" spans="7:7">
       <c r="G819" s="9"/>
     </row>
-    <row r="820" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="820" spans="7:7">
       <c r="G820" s="9"/>
     </row>
-    <row r="821" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="821" spans="7:7">
       <c r="G821" s="9"/>
     </row>
-    <row r="822" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="822" spans="7:7">
       <c r="G822" s="9"/>
     </row>
-    <row r="823" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="823" spans="7:7">
       <c r="G823" s="9"/>
     </row>
-    <row r="824" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="824" spans="7:7">
       <c r="G824" s="9"/>
     </row>
-    <row r="825" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="825" spans="7:7">
       <c r="G825" s="9"/>
     </row>
-    <row r="826" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="826" spans="7:7">
       <c r="G826" s="9"/>
     </row>
-    <row r="827" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="827" spans="7:7">
       <c r="G827" s="9"/>
     </row>
-    <row r="828" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="828" spans="7:7">
       <c r="G828" s="9"/>
     </row>
-    <row r="829" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="829" spans="7:7">
       <c r="G829" s="9"/>
     </row>
-    <row r="830" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="830" spans="7:7">
       <c r="G830" s="9"/>
     </row>
-    <row r="831" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="831" spans="7:7">
       <c r="G831" s="9"/>
     </row>
-    <row r="832" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="832" spans="7:7">
       <c r="G832" s="9"/>
     </row>
-    <row r="833" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="833" spans="7:7">
       <c r="G833" s="9"/>
     </row>
-    <row r="834" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="834" spans="7:7">
       <c r="G834" s="9"/>
     </row>
-    <row r="835" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="835" spans="7:7">
       <c r="G835" s="9"/>
     </row>
-    <row r="836" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="836" spans="7:7">
       <c r="G836" s="9"/>
     </row>
-    <row r="837" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="837" spans="7:7">
       <c r="G837" s="9"/>
     </row>
-    <row r="838" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="838" spans="7:7">
       <c r="G838" s="9"/>
     </row>
-    <row r="839" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="839" spans="7:7">
       <c r="G839" s="9"/>
     </row>
-    <row r="840" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="840" spans="7:7">
       <c r="G840" s="9"/>
     </row>
-    <row r="841" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="841" spans="7:7">
       <c r="G841" s="9"/>
     </row>
-    <row r="842" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="842" spans="7:7">
       <c r="G842" s="9"/>
     </row>
-    <row r="843" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="843" spans="7:7">
       <c r="G843" s="9"/>
     </row>
-    <row r="844" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="844" spans="7:7">
       <c r="G844" s="9"/>
     </row>
-    <row r="845" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="845" spans="7:7">
       <c r="G845" s="9"/>
     </row>
-    <row r="846" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="846" spans="7:7">
       <c r="G846" s="9"/>
     </row>
-    <row r="847" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="847" spans="7:7">
       <c r="G847" s="9"/>
     </row>
-    <row r="848" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="848" spans="7:7">
       <c r="G848" s="9"/>
     </row>
-    <row r="849" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="849" spans="7:7">
       <c r="G849" s="9"/>
     </row>
-    <row r="850" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="850" spans="7:7">
       <c r="G850" s="9"/>
     </row>
-    <row r="851" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="851" spans="7:7">
       <c r="G851" s="9"/>
     </row>
-    <row r="852" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="852" spans="7:7">
       <c r="G852" s="9"/>
     </row>
-    <row r="853" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="853" spans="7:7">
       <c r="G853" s="9"/>
     </row>
-    <row r="854" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="854" spans="7:7">
       <c r="G854" s="9"/>
     </row>
-    <row r="855" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="855" spans="7:7">
       <c r="G855" s="9"/>
     </row>
-    <row r="856" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="856" spans="7:7">
       <c r="G856" s="9"/>
     </row>
-    <row r="857" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="857" spans="7:7">
       <c r="G857" s="9"/>
     </row>
-    <row r="858" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="858" spans="7:7">
       <c r="G858" s="9"/>
     </row>
-    <row r="859" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="859" spans="7:7">
       <c r="G859" s="9"/>
     </row>
-    <row r="860" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="860" spans="7:7">
       <c r="G860" s="9"/>
     </row>
-    <row r="861" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="861" spans="7:7">
       <c r="G861" s="9"/>
     </row>
-    <row r="862" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="862" spans="7:7">
       <c r="G862" s="9"/>
     </row>
-    <row r="863" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="863" spans="7:7">
       <c r="G863" s="9"/>
     </row>
-    <row r="864" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="864" spans="7:7">
       <c r="G864" s="9"/>
     </row>
-    <row r="865" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="865" spans="7:7">
       <c r="G865" s="9"/>
     </row>
-    <row r="866" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="866" spans="7:7">
       <c r="G866" s="9"/>
     </row>
-    <row r="867" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="867" spans="7:7">
       <c r="G867" s="9"/>
     </row>
-    <row r="868" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="868" spans="7:7">
       <c r="G868" s="9"/>
     </row>
-    <row r="869" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="869" spans="7:7">
       <c r="G869" s="9"/>
     </row>
-    <row r="870" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="870" spans="7:7">
       <c r="G870" s="9"/>
     </row>
-    <row r="871" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="871" spans="7:7">
       <c r="G871" s="9"/>
     </row>
-    <row r="872" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="872" spans="7:7">
       <c r="G872" s="9"/>
     </row>
-    <row r="873" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="873" spans="7:7">
       <c r="G873" s="9"/>
     </row>
-    <row r="874" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="874" spans="7:7">
       <c r="G874" s="9"/>
     </row>
-    <row r="875" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="875" spans="7:7">
       <c r="G875" s="9"/>
     </row>
-    <row r="876" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="876" spans="7:7">
       <c r="G876" s="9"/>
     </row>
-    <row r="877" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="877" spans="7:7">
       <c r="G877" s="9"/>
     </row>
-    <row r="878" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="878" spans="7:7">
       <c r="G878" s="9"/>
     </row>
-    <row r="879" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="879" spans="7:7">
       <c r="G879" s="9"/>
     </row>
-    <row r="880" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="880" spans="7:7">
       <c r="G880" s="9"/>
     </row>
-    <row r="881" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="881" spans="7:7">
       <c r="G881" s="9"/>
     </row>
-    <row r="882" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="882" spans="7:7">
       <c r="G882" s="9"/>
     </row>
-    <row r="883" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="883" spans="7:7">
       <c r="G883" s="9"/>
     </row>
-    <row r="884" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="884" spans="7:7">
       <c r="G884" s="9"/>
     </row>
-    <row r="885" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="885" spans="7:7">
       <c r="G885" s="9"/>
     </row>
-    <row r="886" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="886" spans="7:7">
       <c r="G886" s="9"/>
     </row>
-    <row r="887" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="887" spans="7:7">
       <c r="G887" s="9"/>
     </row>
-    <row r="888" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="888" spans="7:7">
       <c r="G888" s="9"/>
     </row>
-    <row r="889" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="889" spans="7:7">
       <c r="G889" s="9"/>
     </row>
-    <row r="890" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="890" spans="7:7">
       <c r="G890" s="9"/>
     </row>
-    <row r="891" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="891" spans="7:7">
       <c r="G891" s="9"/>
     </row>
-    <row r="892" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="892" spans="7:7">
       <c r="G892" s="9"/>
     </row>
-    <row r="893" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="893" spans="7:7">
       <c r="G893" s="9"/>
     </row>
-    <row r="894" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="894" spans="7:7">
       <c r="G894" s="9"/>
     </row>
-    <row r="895" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="895" spans="7:7">
       <c r="G895" s="9"/>
     </row>
-    <row r="896" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="896" spans="7:7">
       <c r="G896" s="9"/>
     </row>
-    <row r="897" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="897" spans="7:7">
       <c r="G897" s="9"/>
     </row>
-    <row r="898" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="898" spans="7:7">
       <c r="G898" s="9"/>
     </row>
-    <row r="899" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="899" spans="7:7">
       <c r="G899" s="9"/>
     </row>
-    <row r="900" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="900" spans="7:7">
       <c r="G900" s="9"/>
     </row>
-    <row r="901" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="901" spans="7:7">
       <c r="G901" s="9"/>
     </row>
-    <row r="902" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="902" spans="7:7">
       <c r="G902" s="9"/>
     </row>
-    <row r="903" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="903" spans="7:7">
       <c r="G903" s="9"/>
     </row>
-    <row r="904" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="904" spans="7:7">
       <c r="G904" s="9"/>
     </row>
-    <row r="905" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="905" spans="7:7">
       <c r="G905" s="9"/>
     </row>
-    <row r="906" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="906" spans="7:7">
       <c r="G906" s="9"/>
     </row>
-    <row r="907" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="907" spans="7:7">
       <c r="G907" s="9"/>
     </row>
-    <row r="908" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="908" spans="7:7">
       <c r="G908" s="9"/>
     </row>
-    <row r="909" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="909" spans="7:7">
       <c r="G909" s="9"/>
     </row>
-    <row r="910" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="910" spans="7:7">
       <c r="G910" s="9"/>
     </row>
-    <row r="911" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="911" spans="7:7">
       <c r="G911" s="9"/>
     </row>
-    <row r="912" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="912" spans="7:7">
       <c r="G912" s="9"/>
     </row>
-    <row r="913" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="913" spans="7:7">
       <c r="G913" s="9"/>
     </row>
-    <row r="914" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="914" spans="7:7">
       <c r="G914" s="9"/>
     </row>
-    <row r="915" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="915" spans="7:7">
       <c r="G915" s="9"/>
     </row>
-    <row r="916" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="916" spans="7:7">
       <c r="G916" s="9"/>
     </row>
-    <row r="917" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="917" spans="7:7">
       <c r="G917" s="9"/>
     </row>
-    <row r="918" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="918" spans="7:7">
       <c r="G918" s="9"/>
     </row>
-    <row r="919" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="919" spans="7:7">
       <c r="G919" s="9"/>
     </row>
-    <row r="920" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="920" spans="7:7">
       <c r="G920" s="9"/>
     </row>
-    <row r="921" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="921" spans="7:7">
       <c r="G921" s="9"/>
     </row>
-    <row r="922" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="922" spans="7:7">
       <c r="G922" s="9"/>
     </row>
-    <row r="923" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="923" spans="7:7">
       <c r="G923" s="9"/>
     </row>
-    <row r="924" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="924" spans="7:7">
       <c r="G924" s="9"/>
     </row>
-    <row r="925" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="925" spans="7:7">
       <c r="G925" s="9"/>
     </row>
-    <row r="926" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="926" spans="7:7">
       <c r="G926" s="9"/>
     </row>
-    <row r="927" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="927" spans="7:7">
       <c r="G927" s="9"/>
     </row>
-    <row r="928" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="928" spans="7:7">
       <c r="G928" s="9"/>
     </row>
-    <row r="929" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="929" spans="7:7">
       <c r="G929" s="9"/>
     </row>
-    <row r="930" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="930" spans="7:7">
       <c r="G930" s="9"/>
     </row>
-    <row r="931" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="931" spans="7:7">
       <c r="G931" s="9"/>
     </row>
-    <row r="932" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="932" spans="7:7">
       <c r="G932" s="9"/>
     </row>
-    <row r="933" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="933" spans="7:7">
       <c r="G933" s="9"/>
     </row>
-    <row r="934" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="934" spans="7:7">
       <c r="G934" s="9"/>
     </row>
-    <row r="935" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="935" spans="7:7">
       <c r="G935" s="9"/>
     </row>
-    <row r="936" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="936" spans="7:7">
       <c r="G936" s="9"/>
     </row>
-    <row r="937" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="937" spans="7:7">
       <c r="G937" s="9"/>
     </row>
-    <row r="938" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="938" spans="7:7">
       <c r="G938" s="9"/>
     </row>
-    <row r="939" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="939" spans="7:7">
       <c r="G939" s="9"/>
     </row>
-    <row r="940" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="940" spans="7:7">
       <c r="G940" s="9"/>
     </row>
-    <row r="941" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="941" spans="7:7">
       <c r="G941" s="9"/>
     </row>
-    <row r="942" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="942" spans="7:7">
       <c r="G942" s="9"/>
     </row>
-    <row r="943" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="943" spans="7:7">
       <c r="G943" s="9"/>
     </row>
-    <row r="944" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="944" spans="7:7">
       <c r="G944" s="9"/>
     </row>
-    <row r="945" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="945" spans="7:7">
       <c r="G945" s="9"/>
     </row>
-    <row r="946" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="946" spans="7:7">
       <c r="G946" s="9"/>
     </row>
-    <row r="947" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="947" spans="7:7">
       <c r="G947" s="9"/>
     </row>
-    <row r="948" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="948" spans="7:7">
       <c r="G948" s="9"/>
     </row>
-    <row r="949" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="949" spans="7:7">
       <c r="G949" s="9"/>
     </row>
-    <row r="950" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="950" spans="7:7">
       <c r="G950" s="9"/>
     </row>
-    <row r="951" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="951" spans="7:7">
       <c r="G951" s="9"/>
     </row>
-    <row r="952" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="952" spans="7:7">
       <c r="G952" s="9"/>
     </row>
-    <row r="953" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="953" spans="7:7">
       <c r="G953" s="9"/>
     </row>
-    <row r="954" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="954" spans="7:7">
       <c r="G954" s="9"/>
     </row>
-    <row r="955" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="955" spans="7:7">
       <c r="G955" s="9"/>
     </row>
-    <row r="956" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="956" spans="7:7">
       <c r="G956" s="9"/>
     </row>
-    <row r="957" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="957" spans="7:7">
       <c r="G957" s="9"/>
     </row>
-    <row r="958" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="958" spans="7:7">
       <c r="G958" s="9"/>
     </row>
-    <row r="959" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="959" spans="7:7">
       <c r="G959" s="9"/>
     </row>
-    <row r="960" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="960" spans="7:7">
       <c r="G960" s="9"/>
     </row>
-    <row r="961" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="961" spans="7:7">
       <c r="G961" s="9"/>
     </row>
-    <row r="962" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="962" spans="7:7">
       <c r="G962" s="9"/>
     </row>
-    <row r="963" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="963" spans="7:7">
       <c r="G963" s="9"/>
     </row>
-    <row r="964" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="964" spans="7:7">
       <c r="G964" s="9"/>
     </row>
-    <row r="965" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="965" spans="7:7">
       <c r="G965" s="9"/>
     </row>
-    <row r="966" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="966" spans="7:7">
       <c r="G966" s="9"/>
     </row>
-    <row r="967" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="967" spans="7:7">
       <c r="G967" s="9"/>
     </row>
-    <row r="968" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="968" spans="7:7">
       <c r="G968" s="9"/>
     </row>
-    <row r="969" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="969" spans="7:7">
       <c r="G969" s="9"/>
     </row>
-    <row r="970" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="970" spans="7:7">
       <c r="G970" s="9"/>
     </row>
-    <row r="971" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="971" spans="7:7">
       <c r="G971" s="9"/>
     </row>
-    <row r="972" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="972" spans="7:7">
       <c r="G972" s="9"/>
     </row>
-    <row r="973" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="973" spans="7:7">
       <c r="G973" s="9"/>
     </row>
-    <row r="974" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="974" spans="7:7">
       <c r="G974" s="9"/>
     </row>
-    <row r="975" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="975" spans="7:7">
       <c r="G975" s="9"/>
     </row>
-    <row r="976" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="976" spans="7:7">
       <c r="G976" s="9"/>
     </row>
-    <row r="977" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="977" spans="7:7">
       <c r="G977" s="9"/>
     </row>
-    <row r="978" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="978" spans="7:7">
       <c r="G978" s="9"/>
     </row>
-    <row r="979" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="979" spans="7:7">
       <c r="G979" s="9"/>
     </row>
-    <row r="980" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="980" spans="7:7">
       <c r="G980" s="9"/>
     </row>
-    <row r="981" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="981" spans="7:7">
       <c r="G981" s="9"/>
     </row>
-    <row r="982" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="982" spans="7:7">
       <c r="G982" s="9"/>
     </row>
-    <row r="983" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="983" spans="7:7">
       <c r="G983" s="9"/>
     </row>
-    <row r="984" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="984" spans="7:7">
       <c r="G984" s="9"/>
     </row>
-    <row r="985" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="985" spans="7:7">
       <c r="G985" s="9"/>
     </row>
-    <row r="986" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="986" spans="7:7">
       <c r="G986" s="9"/>
     </row>
-    <row r="987" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="987" spans="7:7">
       <c r="G987" s="9"/>
     </row>
-    <row r="988" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="988" spans="7:7">
       <c r="G988" s="9"/>
     </row>
-    <row r="989" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="989" spans="7:7">
       <c r="G989" s="9"/>
     </row>
-    <row r="990" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="990" spans="7:7">
       <c r="G990" s="9"/>
     </row>
-    <row r="991" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="991" spans="7:7">
       <c r="G991" s="9"/>
     </row>
-    <row r="992" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="992" spans="7:7">
       <c r="G992" s="9"/>
     </row>
-    <row r="993" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="993" spans="7:7">
       <c r="G993" s="9"/>
     </row>
-    <row r="994" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="994" spans="7:7">
       <c r="G994" s="9"/>
     </row>
-    <row r="995" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="995" spans="7:7">
       <c r="G995" s="9"/>
     </row>
-    <row r="996" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="996" spans="7:7">
       <c r="G996" s="9"/>
     </row>
-    <row r="997" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="997" spans="7:7">
       <c r="G997" s="9"/>
     </row>
-    <row r="998" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="998" spans="7:7">
       <c r="G998" s="9"/>
     </row>
-    <row r="999" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="999" spans="7:7">
       <c r="G999" s="9"/>
     </row>
-    <row r="1000" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1000" spans="7:7">
       <c r="G1000" s="9"/>
     </row>
-    <row r="1001" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1001" spans="7:7">
       <c r="G1001" s="9"/>
     </row>
-    <row r="1002" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1002" spans="7:7">
       <c r="G1002" s="9"/>
     </row>
-    <row r="1003" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1003" spans="7:7">
       <c r="G1003" s="9"/>
     </row>
-    <row r="1004" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1004" spans="7:7">
       <c r="G1004" s="9"/>
     </row>
-    <row r="1005" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1005" spans="7:7">
       <c r="G1005" s="9"/>
     </row>
-    <row r="1006" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1006" spans="7:7">
       <c r="G1006" s="9"/>
     </row>
-    <row r="1007" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1007" spans="7:7">
       <c r="G1007" s="9"/>
     </row>
-    <row r="1008" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1008" spans="7:7">
       <c r="G1008" s="9"/>
     </row>
-    <row r="1009" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1009" spans="7:7">
       <c r="G1009" s="9"/>
     </row>
-    <row r="1010" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1010" spans="7:7">
       <c r="G1010" s="9"/>
     </row>
-    <row r="1011" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1011" spans="7:7">
       <c r="G1011" s="9"/>
     </row>
-    <row r="1012" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1012" spans="7:7">
       <c r="G1012" s="9"/>
     </row>
-    <row r="1013" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1013" spans="7:7">
       <c r="G1013" s="9"/>
     </row>
-    <row r="1014" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1014" spans="7:7">
       <c r="G1014" s="9"/>
     </row>
-    <row r="1015" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1015" spans="7:7">
       <c r="G1015" s="9"/>
     </row>
-    <row r="1016" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1016" spans="7:7">
       <c r="G1016" s="9"/>
     </row>
-    <row r="1017" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1017" spans="7:7">
       <c r="G1017" s="9"/>
     </row>
-    <row r="1018" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1018" spans="7:7">
       <c r="G1018" s="9"/>
     </row>
-    <row r="1019" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1019" spans="7:7">
       <c r="G1019" s="9"/>
     </row>
-    <row r="1020" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1020" spans="7:7">
       <c r="G1020" s="9"/>
     </row>
-    <row r="1021" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1021" spans="7:7">
       <c r="G1021" s="9"/>
     </row>
-    <row r="1022" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1022" spans="7:7">
       <c r="G1022" s="9"/>
     </row>
-    <row r="1023" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1023" spans="7:7">
       <c r="G1023" s="9"/>
     </row>
-    <row r="1024" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1024" spans="7:7">
       <c r="G1024" s="9"/>
     </row>
-    <row r="1025" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1025" spans="7:7">
       <c r="G1025" s="9"/>
     </row>
-    <row r="1026" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1026" spans="7:7">
       <c r="G1026" s="9"/>
     </row>
-    <row r="1027" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1027" spans="7:7">
       <c r="G1027" s="9"/>
     </row>
-    <row r="1028" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1028" spans="7:7">
       <c r="G1028" s="9"/>
     </row>
-    <row r="1029" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1029" spans="7:7">
       <c r="G1029" s="9"/>
     </row>
-    <row r="1030" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1030" spans="7:7">
       <c r="G1030" s="9"/>
     </row>
-    <row r="1031" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1031" spans="7:7">
       <c r="G1031" s="9"/>
     </row>
-    <row r="1032" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1032" spans="7:7">
       <c r="G1032" s="9"/>
     </row>
-    <row r="1033" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1033" spans="7:7">
       <c r="G1033" s="9"/>
     </row>
-    <row r="1034" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1034" spans="7:7">
       <c r="G1034" s="9"/>
     </row>
-    <row r="1035" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1035" spans="7:7">
       <c r="G1035" s="9"/>
     </row>
-    <row r="1036" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1036" spans="7:7">
       <c r="G1036" s="9"/>
     </row>
-    <row r="1037" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1037" spans="7:7">
       <c r="G1037" s="9"/>
     </row>
-    <row r="1038" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1038" spans="7:7">
       <c r="G1038" s="9"/>
     </row>
-    <row r="1039" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1039" spans="7:7">
       <c r="G1039" s="9"/>
     </row>
-    <row r="1040" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1040" spans="7:7">
       <c r="G1040" s="9"/>
     </row>
-    <row r="1041" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1041" spans="7:7">
       <c r="G1041" s="9"/>
     </row>
-    <row r="1042" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1042" spans="7:7">
       <c r="G1042" s="9"/>
     </row>
-    <row r="1043" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1043" spans="7:7">
       <c r="G1043" s="9"/>
     </row>
-    <row r="1044" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1044" spans="7:7">
       <c r="G1044" s="9"/>
     </row>
-    <row r="1045" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1045" spans="7:7">
       <c r="G1045" s="9"/>
     </row>
-    <row r="1046" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1046" spans="7:7">
       <c r="G1046" s="9"/>
     </row>
-    <row r="1047" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1047" spans="7:7">
       <c r="G1047" s="9"/>
     </row>
-    <row r="1048" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1048" spans="7:7">
       <c r="G1048" s="9"/>
     </row>
-    <row r="1049" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1049" spans="7:7">
       <c r="G1049" s="9"/>
     </row>
-    <row r="1050" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1050" spans="7:7">
       <c r="G1050" s="9"/>
     </row>
-    <row r="1051" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1051" spans="7:7">
       <c r="G1051" s="9"/>
     </row>
-    <row r="1052" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1052" spans="7:7">
       <c r="G1052" s="9"/>
     </row>
-    <row r="1053" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1053" spans="7:7">
       <c r="G1053" s="9"/>
     </row>
-    <row r="1054" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1054" spans="7:7">
       <c r="G1054" s="9"/>
     </row>
-    <row r="1055" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1055" spans="7:7">
       <c r="G1055" s="9"/>
     </row>
-    <row r="1056" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1056" spans="7:7">
       <c r="G1056" s="9"/>
     </row>
-    <row r="1057" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1057" spans="7:7">
       <c r="G1057" s="9"/>
     </row>
-    <row r="1058" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1058" spans="7:7">
       <c r="G1058" s="9"/>
     </row>
-    <row r="1059" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1059" spans="7:7">
       <c r="G1059" s="9"/>
     </row>
-    <row r="1060" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1060" spans="7:7">
       <c r="G1060" s="9"/>
     </row>
-    <row r="1061" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1061" spans="7:7">
       <c r="G1061" s="9"/>
     </row>
-    <row r="1062" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1062" spans="7:7">
       <c r="G1062" s="9"/>
     </row>
-    <row r="1063" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1063" spans="7:7">
       <c r="G1063" s="9"/>
     </row>
-    <row r="1064" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1064" spans="7:7">
       <c r="G1064" s="9"/>
     </row>
-    <row r="1065" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1065" spans="7:7">
       <c r="G1065" s="9"/>
     </row>
-    <row r="1066" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1066" spans="7:7">
       <c r="G1066" s="9"/>
     </row>
-    <row r="1067" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1067" spans="7:7">
       <c r="G1067" s="9"/>
     </row>
-    <row r="1068" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1068" spans="7:7">
       <c r="G1068" s="9"/>
     </row>
-    <row r="1069" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1069" spans="7:7">
       <c r="G1069" s="9"/>
     </row>
-    <row r="1070" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1070" spans="7:7">
       <c r="G1070" s="9"/>
     </row>
-    <row r="1071" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1071" spans="7:7">
       <c r="G1071" s="9"/>
     </row>
-    <row r="1072" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1072" spans="7:7">
       <c r="G1072" s="9"/>
     </row>
-    <row r="1073" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1073" spans="7:7">
       <c r="G1073" s="9"/>
     </row>
-    <row r="1074" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1074" spans="7:7">
       <c r="G1074" s="9"/>
     </row>
-    <row r="1075" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1075" spans="7:7">
       <c r="G1075" s="9"/>
     </row>
-    <row r="1076" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1076" spans="7:7">
       <c r="G1076" s="9"/>
     </row>
-    <row r="1077" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1077" spans="7:7">
       <c r="G1077" s="9"/>
     </row>
-    <row r="1078" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1078" spans="7:7">
       <c r="G1078" s="9"/>
     </row>
-    <row r="1079" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1079" spans="7:7">
       <c r="G1079" s="9"/>
     </row>
-    <row r="1080" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1080" spans="7:7">
       <c r="G1080" s="9"/>
     </row>
-    <row r="1081" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1081" spans="7:7">
       <c r="G1081" s="9"/>
     </row>
-    <row r="1082" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1082" spans="7:7">
       <c r="G1082" s="9"/>
     </row>
-    <row r="1083" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1083" spans="7:7">
       <c r="G1083" s="9"/>
     </row>
-    <row r="1084" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1084" spans="7:7">
       <c r="G1084" s="9"/>
     </row>
-    <row r="1085" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1085" spans="7:7">
       <c r="G1085" s="9"/>
     </row>
-    <row r="1086" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1086" spans="7:7">
       <c r="G1086" s="9"/>
     </row>
-    <row r="1087" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1087" spans="7:7">
       <c r="G1087" s="9"/>
     </row>
-    <row r="1088" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1088" spans="7:7">
       <c r="G1088" s="9"/>
     </row>
-    <row r="1089" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1089" spans="7:7">
       <c r="G1089" s="9"/>
     </row>
-    <row r="1090" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1090" spans="7:7">
       <c r="G1090" s="9"/>
     </row>
-    <row r="1091" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1091" spans="7:7">
       <c r="G1091" s="9"/>
     </row>
-    <row r="1092" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1092" spans="7:7">
       <c r="G1092" s="9"/>
     </row>
-    <row r="1093" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1093" spans="7:7">
       <c r="G1093" s="9"/>
     </row>
-    <row r="1094" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1094" spans="7:7">
       <c r="G1094" s="9"/>
     </row>
-    <row r="1095" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1095" spans="7:7">
       <c r="G1095" s="9"/>
     </row>
-    <row r="1096" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1096" spans="7:7">
       <c r="G1096" s="9"/>
     </row>
-    <row r="1097" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1097" spans="7:7">
       <c r="G1097" s="9"/>
     </row>
-    <row r="1098" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1098" spans="7:7">
       <c r="G1098" s="9"/>
     </row>
-    <row r="1099" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1099" spans="7:7">
       <c r="G1099" s="9"/>
     </row>
-    <row r="1100" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1100" spans="7:7">
       <c r="G1100" s="9"/>
     </row>
-    <row r="1101" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1101" spans="7:7">
       <c r="G1101" s="9"/>
     </row>
-    <row r="1102" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1102" spans="7:7">
       <c r="G1102" s="9"/>
     </row>
-    <row r="1103" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1103" spans="7:7">
       <c r="G1103" s="9"/>
     </row>
-    <row r="1104" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1104" spans="7:7">
       <c r="G1104" s="9"/>
     </row>
-    <row r="1105" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1105" spans="7:7">
       <c r="G1105" s="9"/>
     </row>
-    <row r="1106" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1106" spans="7:7">
       <c r="G1106" s="9"/>
     </row>
-    <row r="1107" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1107" spans="7:7">
       <c r="G1107" s="9"/>
     </row>
-    <row r="1108" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1108" spans="7:7">
       <c r="G1108" s="9"/>
     </row>
-    <row r="1109" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1109" spans="7:7">
       <c r="G1109" s="9"/>
     </row>
-    <row r="1110" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1110" spans="7:7">
       <c r="G1110" s="9"/>
     </row>
-    <row r="1111" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1111" spans="7:7">
       <c r="G1111" s="9"/>
     </row>
-    <row r="1112" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1112" spans="7:7">
       <c r="G1112" s="9"/>
     </row>
-    <row r="1113" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1113" spans="7:7">
       <c r="G1113" s="9"/>
     </row>
-    <row r="1114" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1114" spans="7:7">
       <c r="G1114" s="9"/>
     </row>
-    <row r="1115" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1115" spans="7:7">
       <c r="G1115" s="9"/>
     </row>
-    <row r="1116" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1116" spans="7:7">
       <c r="G1116" s="9"/>
     </row>
-    <row r="1117" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1117" spans="7:7">
       <c r="G1117" s="9"/>
     </row>
-    <row r="1118" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1118" spans="7:7">
       <c r="G1118" s="9"/>
     </row>
-    <row r="1119" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1119" spans="7:7">
       <c r="G1119" s="9"/>
     </row>
-    <row r="1120" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1120" spans="7:7">
       <c r="G1120" s="9"/>
     </row>
-    <row r="1121" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1121" spans="7:7">
       <c r="G1121" s="9"/>
     </row>
-    <row r="1122" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1122" spans="7:7">
       <c r="G1122" s="9"/>
     </row>
-    <row r="1123" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1123" spans="7:7">
       <c r="G1123" s="9"/>
     </row>
-    <row r="1124" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1124" spans="7:7">
       <c r="G1124" s="9"/>
     </row>
-    <row r="1125" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1125" spans="7:7">
       <c r="G1125" s="9"/>
     </row>
-    <row r="1126" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1126" spans="7:7">
       <c r="G1126" s="9"/>
     </row>
-    <row r="1127" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1127" spans="7:7">
       <c r="G1127" s="9"/>
     </row>
-    <row r="1128" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1128" spans="7:7">
       <c r="G1128" s="9"/>
     </row>
-    <row r="1129" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1129" spans="7:7">
       <c r="G1129" s="9"/>
     </row>
-    <row r="1130" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1130" spans="7:7">
       <c r="G1130" s="9"/>
     </row>
-    <row r="1131" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1131" spans="7:7">
       <c r="G1131" s="9"/>
     </row>
-    <row r="1132" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1132" spans="7:7">
       <c r="G1132" s="9"/>
     </row>
-    <row r="1133" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1133" spans="7:7">
       <c r="G1133" s="9"/>
     </row>
-    <row r="1134" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1134" spans="7:7">
       <c r="G1134" s="9"/>
     </row>
-    <row r="1135" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1135" spans="7:7">
       <c r="G1135" s="9"/>
     </row>
-    <row r="1136" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1136" spans="7:7">
       <c r="G1136" s="9"/>
     </row>
-    <row r="1137" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1137" spans="7:7">
       <c r="G1137" s="9"/>
     </row>
-    <row r="1138" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1138" spans="7:7">
       <c r="G1138" s="9"/>
     </row>
-    <row r="1139" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1139" spans="7:7">
       <c r="G1139" s="9"/>
     </row>
-    <row r="1140" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1140" spans="7:7">
       <c r="G1140" s="9"/>
     </row>
-    <row r="1141" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1141" spans="7:7">
       <c r="G1141" s="9"/>
     </row>
-    <row r="1142" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1142" spans="7:7">
       <c r="G1142" s="9"/>
     </row>
-    <row r="1143" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1143" spans="7:7">
       <c r="G1143" s="9"/>
     </row>
-    <row r="1144" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1144" spans="7:7">
       <c r="G1144" s="9"/>
     </row>
-    <row r="1145" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1145" spans="7:7">
       <c r="G1145" s="9"/>
     </row>
-    <row r="1146" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1146" spans="7:7">
       <c r="G1146" s="9"/>
     </row>
-    <row r="1147" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1147" spans="7:7">
       <c r="G1147" s="9"/>
     </row>
-    <row r="1148" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1148" spans="7:7">
       <c r="G1148" s="9"/>
     </row>
-    <row r="1149" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1149" spans="7:7">
       <c r="G1149" s="9"/>
     </row>
-    <row r="1150" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1150" spans="7:7">
       <c r="G1150" s="9"/>
     </row>
-    <row r="1151" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1151" spans="7:7">
       <c r="G1151" s="9"/>
     </row>
-    <row r="1152" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1152" spans="7:7">
       <c r="G1152" s="9"/>
     </row>
-    <row r="1153" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1153" spans="7:7">
       <c r="G1153" s="9"/>
     </row>
-    <row r="1154" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1154" spans="7:7">
       <c r="G1154" s="9"/>
     </row>
-    <row r="1155" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1155" spans="7:7">
       <c r="G1155" s="9"/>
     </row>
-    <row r="1156" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1156" spans="7:7">
       <c r="G1156" s="9"/>
     </row>
-    <row r="1157" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1157" spans="7:7">
       <c r="G1157" s="9"/>
     </row>
-    <row r="1158" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1158" spans="7:7">
       <c r="G1158" s="9"/>
     </row>
-    <row r="1159" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1159" spans="7:7">
       <c r="G1159" s="9"/>
     </row>
-    <row r="1160" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1160" spans="7:7">
       <c r="G1160" s="9"/>
     </row>
-    <row r="1161" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1161" spans="7:7">
       <c r="G1161" s="9"/>
     </row>
-    <row r="1162" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1162" spans="7:7">
       <c r="G1162" s="9"/>
     </row>
-    <row r="1163" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1163" spans="7:7">
       <c r="G1163" s="9"/>
     </row>
-    <row r="1164" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1164" spans="7:7">
       <c r="G1164" s="9"/>
     </row>
-    <row r="1165" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1165" spans="7:7">
       <c r="G1165" s="9"/>
     </row>
-    <row r="1166" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1166" spans="7:7">
       <c r="G1166" s="9"/>
     </row>
-    <row r="1167" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1167" spans="7:7">
       <c r="G1167" s="9"/>
     </row>
-    <row r="1168" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1168" spans="7:7">
       <c r="G1168" s="9"/>
     </row>
-    <row r="1169" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1169" spans="7:7">
       <c r="G1169" s="9"/>
     </row>
-    <row r="1170" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1170" spans="7:7">
       <c r="G1170" s="9"/>
     </row>
-    <row r="1171" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1171" spans="7:7">
       <c r="G1171" s="9"/>
     </row>
-    <row r="1172" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1172" spans="7:7">
       <c r="G1172" s="9"/>
     </row>
-    <row r="1173" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1173" spans="7:7">
       <c r="G1173" s="9"/>
     </row>
-    <row r="1174" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1174" spans="7:7">
       <c r="G1174" s="9"/>
     </row>
-    <row r="1175" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1175" spans="7:7">
       <c r="G1175" s="9"/>
     </row>
-    <row r="1176" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1176" spans="7:7">
       <c r="G1176" s="9"/>
     </row>
-    <row r="1177" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1177" spans="7:7">
       <c r="G1177" s="9"/>
     </row>
-    <row r="1178" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1178" spans="7:7">
       <c r="G1178" s="9"/>
     </row>
-    <row r="1179" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1179" spans="7:7">
       <c r="G1179" s="9"/>
     </row>
-    <row r="1180" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1180" spans="7:7">
       <c r="G1180" s="9"/>
     </row>
-    <row r="1181" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1181" spans="7:7">
       <c r="G1181" s="9"/>
     </row>
-    <row r="1182" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1182" spans="7:7">
       <c r="G1182" s="9"/>
     </row>
-    <row r="1183" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1183" spans="7:7">
       <c r="G1183" s="9"/>
     </row>
-    <row r="1184" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1184" spans="7:7">
       <c r="G1184" s="9"/>
     </row>
-    <row r="1185" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1185" spans="7:7">
       <c r="G1185" s="9"/>
     </row>
-    <row r="1186" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1186" spans="7:7">
       <c r="G1186" s="9"/>
     </row>
-    <row r="1187" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1187" spans="7:7">
       <c r="G1187" s="9"/>
     </row>
-    <row r="1188" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1188" spans="7:7">
       <c r="G1188" s="9"/>
     </row>
-    <row r="1189" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1189" spans="7:7">
       <c r="G1189" s="9"/>
     </row>
-    <row r="1190" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1190" spans="7:7">
       <c r="G1190" s="9"/>
     </row>
-    <row r="1191" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1191" spans="7:7">
       <c r="G1191" s="9"/>
     </row>
-    <row r="1192" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1192" spans="7:7">
       <c r="G1192" s="9"/>
     </row>
-    <row r="1193" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1193" spans="7:7">
       <c r="G1193" s="9"/>
     </row>
-    <row r="1194" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1194" spans="7:7">
       <c r="G1194" s="9"/>
     </row>
-    <row r="1195" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1195" spans="7:7">
       <c r="G1195" s="9"/>
     </row>
-    <row r="1196" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1196" spans="7:7">
       <c r="G1196" s="9"/>
     </row>
-    <row r="1197" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1197" spans="7:7">
       <c r="G1197" s="9"/>
     </row>
-    <row r="1198" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1198" spans="7:7">
       <c r="G1198" s="9"/>
     </row>
-    <row r="1199" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1199" spans="7:7">
       <c r="G1199" s="9"/>
     </row>
-    <row r="1200" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1200" spans="7:7">
       <c r="G1200" s="9"/>
     </row>
-    <row r="1201" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1201" spans="7:7">
       <c r="G1201" s="9"/>
     </row>
-    <row r="1202" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1202" spans="7:7">
       <c r="G1202" s="9"/>
     </row>
-    <row r="1203" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1203" spans="7:7">
       <c r="G1203" s="9"/>
     </row>
-    <row r="1204" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1204" spans="7:7">
       <c r="G1204" s="9"/>
     </row>
-    <row r="1205" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1205" spans="7:7">
       <c r="G1205" s="9"/>
     </row>
-    <row r="1206" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1206" spans="7:7">
       <c r="G1206" s="9"/>
     </row>
-    <row r="1207" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1207" spans="7:7">
       <c r="G1207" s="9"/>
     </row>
-    <row r="1208" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1208" spans="7:7">
       <c r="G1208" s="9"/>
     </row>
-    <row r="1209" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1209" spans="7:7">
       <c r="G1209" s="9"/>
     </row>
-    <row r="1210" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1210" spans="7:7">
       <c r="G1210" s="9"/>
     </row>
-    <row r="1211" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1211" spans="7:7">
       <c r="G1211" s="9"/>
     </row>
-    <row r="1212" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1212" spans="7:7">
       <c r="G1212" s="9"/>
     </row>
-    <row r="1213" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1213" spans="7:7">
       <c r="G1213" s="9"/>
     </row>
-    <row r="1214" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1214" spans="7:7">
       <c r="G1214" s="9"/>
     </row>
-    <row r="1215" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1215" spans="7:7">
       <c r="G1215" s="9"/>
     </row>
-    <row r="1216" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1216" spans="7:7">
       <c r="G1216" s="9"/>
     </row>
-    <row r="1217" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1217" spans="7:7">
       <c r="G1217" s="9"/>
     </row>
-    <row r="1218" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="1218" spans="7:7">
       <c r="G1218" s="9"/>
     </row>
   </sheetData>
@@ -9092,99 +9186,99 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="J62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="J68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="J70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="J71" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J72" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="J73" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="J77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J78" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="J79" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J80" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J82" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="J83" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J84" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J85" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J86" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="J87" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="J89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J106" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="J107" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J110" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J115" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="J116" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J117" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J118" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J4" r:id="rId1"/>
+    <hyperlink ref="J5" r:id="rId2"/>
+    <hyperlink ref="J6" r:id="rId3"/>
+    <hyperlink ref="J7" r:id="rId4"/>
+    <hyperlink ref="J8" r:id="rId5"/>
+    <hyperlink ref="J9" r:id="rId6"/>
+    <hyperlink ref="J10" r:id="rId7"/>
+    <hyperlink ref="J11" r:id="rId8"/>
+    <hyperlink ref="J12" r:id="rId9"/>
+    <hyperlink ref="J13" r:id="rId10"/>
+    <hyperlink ref="J14" r:id="rId11"/>
+    <hyperlink ref="J15" r:id="rId12"/>
+    <hyperlink ref="J16" r:id="rId13"/>
+    <hyperlink ref="J17" r:id="rId14"/>
+    <hyperlink ref="J18" r:id="rId15"/>
+    <hyperlink ref="J19" r:id="rId16"/>
+    <hyperlink ref="J20" r:id="rId17"/>
+    <hyperlink ref="J21" r:id="rId18"/>
+    <hyperlink ref="J22" r:id="rId19"/>
+    <hyperlink ref="J23" r:id="rId20"/>
+    <hyperlink ref="J24" r:id="rId21"/>
+    <hyperlink ref="J25" r:id="rId22"/>
+    <hyperlink ref="J26" r:id="rId23"/>
+    <hyperlink ref="J27" r:id="rId24"/>
+    <hyperlink ref="J28" r:id="rId25"/>
+    <hyperlink ref="J29" r:id="rId26"/>
+    <hyperlink ref="J30" r:id="rId27"/>
+    <hyperlink ref="J31" r:id="rId28"/>
+    <hyperlink ref="J32" r:id="rId29"/>
+    <hyperlink ref="J33" r:id="rId30"/>
+    <hyperlink ref="J34" r:id="rId31"/>
+    <hyperlink ref="J35" r:id="rId32"/>
+    <hyperlink ref="J36" r:id="rId33"/>
+    <hyperlink ref="J37" r:id="rId34"/>
+    <hyperlink ref="J38" r:id="rId35"/>
+    <hyperlink ref="J39" r:id="rId36"/>
+    <hyperlink ref="J40" r:id="rId37"/>
+    <hyperlink ref="J41" r:id="rId38"/>
+    <hyperlink ref="J42" r:id="rId39"/>
+    <hyperlink ref="J43" r:id="rId40"/>
+    <hyperlink ref="J44" r:id="rId41"/>
+    <hyperlink ref="J45" r:id="rId42"/>
+    <hyperlink ref="J46" r:id="rId43"/>
+    <hyperlink ref="J47" r:id="rId44"/>
+    <hyperlink ref="J48" r:id="rId45"/>
+    <hyperlink ref="J49" r:id="rId46"/>
+    <hyperlink ref="J50" r:id="rId47"/>
+    <hyperlink ref="J51" r:id="rId48"/>
+    <hyperlink ref="J52" r:id="rId49"/>
+    <hyperlink ref="J53" r:id="rId50"/>
+    <hyperlink ref="J54" r:id="rId51"/>
+    <hyperlink ref="J55" r:id="rId52"/>
+    <hyperlink ref="J56" r:id="rId53"/>
+    <hyperlink ref="J57" r:id="rId54"/>
+    <hyperlink ref="J58" r:id="rId55"/>
+    <hyperlink ref="J59" r:id="rId56"/>
+    <hyperlink ref="J60" r:id="rId57"/>
+    <hyperlink ref="J61" r:id="rId58"/>
+    <hyperlink ref="J62" r:id="rId59"/>
+    <hyperlink ref="J63" r:id="rId60"/>
+    <hyperlink ref="J64" r:id="rId61"/>
+    <hyperlink ref="J65" r:id="rId62"/>
+    <hyperlink ref="J66" r:id="rId63"/>
+    <hyperlink ref="J67" r:id="rId64"/>
+    <hyperlink ref="J68" r:id="rId65"/>
+    <hyperlink ref="J69" r:id="rId66"/>
+    <hyperlink ref="J70" r:id="rId67"/>
+    <hyperlink ref="J71" r:id="rId68"/>
+    <hyperlink ref="J72" r:id="rId69"/>
+    <hyperlink ref="J73" r:id="rId70"/>
+    <hyperlink ref="J74" r:id="rId71"/>
+    <hyperlink ref="J75" r:id="rId72"/>
+    <hyperlink ref="J76" r:id="rId73"/>
+    <hyperlink ref="J77" r:id="rId74"/>
+    <hyperlink ref="J78" r:id="rId75"/>
+    <hyperlink ref="J79" r:id="rId76"/>
+    <hyperlink ref="J80" r:id="rId77"/>
+    <hyperlink ref="J81" r:id="rId78"/>
+    <hyperlink ref="J82" r:id="rId79"/>
+    <hyperlink ref="J83" r:id="rId80"/>
+    <hyperlink ref="J84" r:id="rId81"/>
+    <hyperlink ref="J85" r:id="rId82"/>
+    <hyperlink ref="J86" r:id="rId83"/>
+    <hyperlink ref="J87" r:id="rId84"/>
+    <hyperlink ref="J88" r:id="rId85"/>
+    <hyperlink ref="J89" r:id="rId86"/>
+    <hyperlink ref="J106" r:id="rId87"/>
+    <hyperlink ref="J107" r:id="rId88"/>
+    <hyperlink ref="J110" r:id="rId89"/>
+    <hyperlink ref="J115" r:id="rId90"/>
+    <hyperlink ref="J116" r:id="rId91"/>
+    <hyperlink ref="J117" r:id="rId92"/>
+    <hyperlink ref="J118" r:id="rId93"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId94"/>

--- a/00. PARTS LIST 1119.xlsx
+++ b/00. PARTS LIST 1119.xlsx
@@ -2433,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ1218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/00. PARTS LIST 1119.xlsx
+++ b/00. PARTS LIST 1119.xlsx
@@ -1867,10 +1867,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>HD14001BP</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1920,6 +1916,10 @@
   </si>
   <si>
     <t>A12-09</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD74HC05P</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2433,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ1218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3315,7 +3315,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>133</v>
@@ -6113,10 +6113,10 @@
         <v>211</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="G214" s="9"/>
     </row>
@@ -6125,10 +6125,10 @@
         <v>212</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="G215" s="9"/>
     </row>
@@ -6137,10 +6137,10 @@
         <v>213</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="G216" s="9"/>
     </row>
@@ -6149,10 +6149,10 @@
         <v>214</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="G217" s="9"/>
     </row>
@@ -6161,28 +6161,28 @@
         <v>215</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G218" s="9"/>
     </row>
     <row r="219" spans="1:7">
       <c r="B219" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G219" s="9"/>
     </row>
     <row r="220" spans="1:7">
       <c r="B220" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="G220" s="9"/>
     </row>

--- a/00. PARTS LIST 1119.xlsx
+++ b/00. PARTS LIST 1119.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="591">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -1920,6 +1920,54 @@
   </si>
   <si>
     <t>HD74HC05P</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE556N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-13</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-14</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIP SWITCH 2P</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIP SWITCH 4P</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIP SWITCH 8P</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIP SWITCH 8P BLUE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-15</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-16</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-11</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIP SWITCH 1P ON/OFF 3 pins</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-10</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2433,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ1218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E225" activeCellId="1" sqref="A218:A226 E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6169,6 +6217,9 @@
       <c r="G218" s="9"/>
     </row>
     <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>216</v>
+      </c>
       <c r="B219" s="2" t="s">
         <v>569</v>
       </c>
@@ -6178,6 +6229,9 @@
       <c r="G219" s="9"/>
     </row>
     <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>217</v>
+      </c>
       <c r="B220" s="2" t="s">
         <v>576</v>
       </c>
@@ -6187,63 +6241,117 @@
       <c r="G220" s="9"/>
     </row>
     <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>218</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>580</v>
+      </c>
       <c r="G221" s="9"/>
     </row>
     <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>219</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="G222" s="9"/>
     </row>
     <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>220</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="G223" s="9"/>
     </row>
     <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>221</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>587</v>
+      </c>
       <c r="G224" s="9"/>
     </row>
-    <row r="225" spans="7:7">
+    <row r="225" spans="1:7">
+      <c r="A225" s="1">
+        <v>222</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>588</v>
+      </c>
       <c r="G225" s="9"/>
     </row>
-    <row r="226" spans="7:7">
+    <row r="226" spans="1:7">
+      <c r="A226" s="1">
+        <v>223</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>590</v>
+      </c>
       <c r="G226" s="9"/>
     </row>
-    <row r="227" spans="7:7">
+    <row r="227" spans="1:7">
       <c r="G227" s="9"/>
     </row>
-    <row r="228" spans="7:7">
+    <row r="228" spans="1:7">
       <c r="G228" s="9"/>
     </row>
-    <row r="229" spans="7:7">
+    <row r="229" spans="1:7">
       <c r="G229" s="9"/>
     </row>
-    <row r="230" spans="7:7">
+    <row r="230" spans="1:7">
       <c r="G230" s="9"/>
     </row>
-    <row r="231" spans="7:7">
+    <row r="231" spans="1:7">
       <c r="G231" s="9"/>
     </row>
-    <row r="232" spans="7:7">
+    <row r="232" spans="1:7">
       <c r="G232" s="9"/>
     </row>
-    <row r="233" spans="7:7">
+    <row r="233" spans="1:7">
       <c r="G233" s="9"/>
     </row>
-    <row r="234" spans="7:7">
+    <row r="234" spans="1:7">
       <c r="G234" s="9"/>
     </row>
-    <row r="235" spans="7:7">
+    <row r="235" spans="1:7">
       <c r="G235" s="9"/>
     </row>
-    <row r="236" spans="7:7">
+    <row r="236" spans="1:7">
       <c r="G236" s="9"/>
     </row>
-    <row r="237" spans="7:7">
+    <row r="237" spans="1:7">
       <c r="G237" s="9"/>
     </row>
-    <row r="238" spans="7:7">
+    <row r="238" spans="1:7">
       <c r="G238" s="9"/>
     </row>
-    <row r="239" spans="7:7">
+    <row r="239" spans="1:7">
       <c r="G239" s="9"/>
     </row>
-    <row r="240" spans="7:7">
+    <row r="240" spans="1:7">
       <c r="G240" s="9"/>
     </row>
     <row r="241" spans="7:7">

--- a/00. PARTS LIST 1119.xlsx
+++ b/00. PARTS LIST 1119.xlsx
@@ -2254,9 +2254,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2280,6 +2277,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2654,19 +2654,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -2687,7 +2687,7 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -2916,7 +2916,7 @@
       <c r="G17" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       <c r="G18" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       <c r="G19" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       <c r="G20" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       <c r="G21" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       <c r="G22" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       <c r="G23" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       <c r="G24" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       <c r="G25" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       <c r="G26" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3206,10 +3206,10 @@
       <c r="F33" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       <c r="G34" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3252,7 +3252,7 @@
       <c r="G35" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       <c r="G36" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       <c r="G37" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3330,10 +3330,10 @@
       <c r="F39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3566,7 +3566,7 @@
       <c r="G54" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="J54" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       <c r="G55" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="J55" s="12" t="s">
+      <c r="J55" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
       <c r="G56" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="G57" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="J57" s="12" t="s">
+      <c r="J57" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       <c r="G58" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J58" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       <c r="G59" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
       <c r="G60" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="J60" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
       <c r="G61" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J61" s="12" t="s">
+      <c r="J61" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       <c r="G62" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="J62" s="12" t="s">
+      <c r="J62" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       <c r="G63" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="J63" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3784,7 +3784,7 @@
       <c r="G64" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J64" s="10" t="s">
+      <c r="J64" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       <c r="G68" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J68" s="10" t="s">
+      <c r="J68" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       <c r="G69" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="J69" s="10" t="s">
+      <c r="J69" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       <c r="G74" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="J74" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       <c r="G75" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
         <v>637</v>
       </c>
       <c r="G76" s="6"/>
-      <c r="J76" s="12" t="s">
+      <c r="J76" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       <c r="G77" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="J77" s="10" t="s">
+      <c r="J77" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       <c r="G78" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="J78" s="10" t="s">
+      <c r="J78" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
       <c r="G79" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="J79" s="10" t="s">
+      <c r="J79" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       <c r="G80" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="J80" s="10" t="s">
+      <c r="J80" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4114,7 +4114,7 @@
       <c r="G82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J82" s="10" t="s">
+      <c r="J82" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       <c r="G83" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J83" s="10" t="s">
+      <c r="J83" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       <c r="G84" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="J84" s="10" t="s">
+      <c r="J84" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       <c r="G85" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="J85" s="10" t="s">
+      <c r="J85" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4194,10 +4194,10 @@
       <c r="F86" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="G86" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="J86" s="12" t="s">
+      <c r="J86" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4214,10 +4214,10 @@
       <c r="F87" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G87" s="11" t="s">
+      <c r="G87" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="J87" s="12" t="s">
+      <c r="J87" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       <c r="G88" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="J88" s="10" t="s">
+      <c r="J88" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       <c r="G89" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="J89" s="12" t="s">
+      <c r="J89" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       <c r="G90" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="J90" s="12" t="s">
+      <c r="J90" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       <c r="G91" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="J91" s="12" t="s">
+      <c r="J91" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       <c r="G92" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="J92" s="10" t="s">
+      <c r="J92" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4334,10 +4334,10 @@
       <c r="F93" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G93" s="13" t="s">
+      <c r="G93" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="J93" s="12" t="s">
+      <c r="J93" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4357,10 +4357,10 @@
       <c r="F94" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4383,7 +4383,7 @@
       <c r="G95" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J95" s="10" t="s">
+      <c r="J95" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       <c r="G96" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J96" s="10" t="s">
+      <c r="J96" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       <c r="G97" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J97" s="10" t="s">
+      <c r="J97" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       <c r="G98" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J98" s="10" t="s">
+      <c r="J98" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4472,7 +4472,7 @@
       <c r="G99" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="J99" s="12" t="s">
+      <c r="J99" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       <c r="G100" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="J100" s="12" t="s">
+      <c r="J100" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4509,10 +4509,10 @@
       <c r="F101" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="G101" s="11" t="s">
+      <c r="G101" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="J101" s="12" t="s">
+      <c r="J101" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       <c r="G102" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="J102" s="12" t="s">
+      <c r="J102" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
       <c r="G103" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="J103" s="12" t="s">
+      <c r="J103" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       <c r="G109" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J109" s="10" t="s">
+      <c r="J109" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       <c r="G110" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J110" s="10" t="s">
+      <c r="J110" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       <c r="G111" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="J111" s="10" t="s">
+      <c r="J111" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       <c r="G112" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J112" s="12" t="s">
+      <c r="J112" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4718,10 +4718,10 @@
       <c r="F113" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="G113" s="15" t="s">
+      <c r="G113" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="J113" s="12" t="s">
+      <c r="J113" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4741,7 +4741,7 @@
       <c r="G114" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="J114" s="12" t="s">
+      <c r="J114" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       <c r="G115" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="J115" s="12" t="s">
+      <c r="J115" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
       <c r="G116" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="J116" s="10" t="s">
+      <c r="J116" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       <c r="G117" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J117" s="10" t="s">
+      <c r="J117" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       <c r="G118" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="J118" s="10" t="s">
+      <c r="J118" s="9" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       <c r="G119" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="J119" s="10" t="s">
+      <c r="J119" s="9" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       <c r="G120" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="J120" s="10" t="s">
+      <c r="J120" s="9" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4882,7 +4882,7 @@
         <v>473</v>
       </c>
       <c r="G121" s="6"/>
-      <c r="J121" s="12" t="s">
+      <c r="J121" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4902,7 +4902,7 @@
       <c r="G122" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="J122" s="12" t="s">
+      <c r="J122" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       <c r="A123" s="4">
         <v>120</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="15" t="s">
         <v>476</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -4922,7 +4922,7 @@
       <c r="G123" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="J123" s="12" t="s">
+      <c r="J123" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4942,7 +4942,7 @@
       <c r="G124" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="J124" s="12" t="s">
+      <c r="J124" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       <c r="G125" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J125" s="10" t="s">
+      <c r="J125" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       <c r="G126" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J126" s="10" t="s">
+      <c r="J126" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5008,7 +5008,7 @@
       <c r="G127" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="J127" s="12" t="s">
+      <c r="J127" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       <c r="G128" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="J128" s="10" t="s">
+      <c r="J128" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
       <c r="G129" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J129" s="10" t="s">
+      <c r="J129" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       <c r="G130" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J130" s="10" t="s">
+      <c r="J130" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       <c r="G131" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J131" s="10" t="s">
+      <c r="J131" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5123,7 +5123,7 @@
       <c r="G132" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J132" s="10" t="s">
+      <c r="J132" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       <c r="G133" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="J133" s="10" t="s">
+      <c r="J133" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5166,7 +5166,7 @@
       <c r="G134" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J134" s="10" t="s">
+      <c r="J134" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5183,10 +5183,10 @@
       <c r="F135" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="G135" s="11" t="s">
+      <c r="G135" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="J135" s="12" t="s">
+      <c r="J135" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
       <c r="G136" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="J136" s="10" t="s">
+      <c r="J136" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5232,7 +5232,7 @@
       <c r="G137" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J137" s="10" t="s">
+      <c r="J137" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5255,7 +5255,7 @@
       <c r="G138" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J138" s="10" t="s">
+      <c r="J138" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       <c r="G139" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="J139" s="10" t="s">
+      <c r="J139" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       <c r="G140" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="J140" s="12" t="s">
+      <c r="J140" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5316,7 +5316,7 @@
         <v>629</v>
       </c>
       <c r="G141" s="6"/>
-      <c r="J141" s="12" t="s">
+      <c r="J141" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
       <c r="G142" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="J142" s="10" t="s">
+      <c r="J142" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       <c r="G144" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="J144" s="12" t="s">
+      <c r="J144" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       <c r="G146" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="J146" s="12" t="s">
+      <c r="J146" s="11" t="s">
         <v>658</v>
       </c>
     </row>
@@ -5425,7 +5425,7 @@
       <c r="G147" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="J147" s="10" t="s">
+      <c r="J147" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       <c r="G148" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="J148" s="10" t="s">
+      <c r="J148" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       <c r="G149" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="J149" s="10" t="s">
+      <c r="J149" s="9" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
       <c r="G150" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J150" s="10" t="s">
+      <c r="J150" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5505,10 +5505,10 @@
       <c r="F151" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="G151" s="11" t="s">
+      <c r="G151" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="J151" s="12" t="s">
+      <c r="J151" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
       <c r="G152" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="J152" s="12" t="s">
+      <c r="J152" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       <c r="G153" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J153" s="10" t="s">
+      <c r="J153" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5571,7 +5571,7 @@
       <c r="G154" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="J154" s="12" t="s">
+      <c r="J154" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       <c r="G155" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J155" s="10" t="s">
+      <c r="J155" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       <c r="G156" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J156" s="10" t="s">
+      <c r="J156" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
       <c r="G157" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J157" s="10" t="s">
+      <c r="J157" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       <c r="G158" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J158" s="10" t="s">
+      <c r="J158" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       <c r="G159" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="J159" s="12" t="s">
+      <c r="J159" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       <c r="G160" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="J160" s="12" t="s">
+      <c r="J160" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       <c r="G161" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="J161" s="10" t="s">
+      <c r="J161" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       <c r="G162" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="J162" s="10" t="s">
+      <c r="J162" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       <c r="G163" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="J163" s="12" t="s">
+      <c r="J163" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5798,7 +5798,7 @@
       <c r="G164" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="J164" s="10" t="s">
+      <c r="J164" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
       <c r="G165" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="J165" s="12" t="s">
+      <c r="J165" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5838,7 +5838,7 @@
       <c r="G166" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="J166" s="12" t="s">
+      <c r="J166" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5870,7 +5870,7 @@
       <c r="G168" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="J168" s="10"/>
+      <c r="J168" s="9"/>
     </row>
     <row r="169" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
@@ -5903,7 +5903,7 @@
       <c r="G170" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="J170" s="12" t="s">
+      <c r="J170" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       <c r="G171" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J171" s="10" t="s">
+      <c r="J171" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       <c r="G172" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="J172" s="10" t="s">
+      <c r="J172" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5966,7 +5966,7 @@
       <c r="G173" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="J173" s="10" t="s">
+      <c r="J173" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5989,7 +5989,7 @@
       <c r="G174" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J174" s="10" t="s">
+      <c r="J174" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       <c r="G175" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="J175" s="10" t="s">
+      <c r="J175" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6032,7 +6032,7 @@
       <c r="G176" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="J176" s="12" t="s">
+      <c r="J176" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6052,7 +6052,7 @@
       <c r="G177" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="J177" s="10" t="s">
+      <c r="J177" s="9" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       <c r="G178" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="J178" s="12" t="s">
+      <c r="J178" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6095,7 +6095,7 @@
       <c r="G179" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="J179" s="12" t="s">
+      <c r="J179" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6115,7 +6115,7 @@
       <c r="G180" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J180" s="10" t="s">
+      <c r="J180" s="9" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6135,7 +6135,7 @@
       <c r="G181" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="J181" s="10" t="s">
+      <c r="J181" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6155,7 +6155,7 @@
       <c r="G182" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="J182" s="10"/>
+      <c r="J182" s="9"/>
     </row>
     <row r="183" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
@@ -6187,10 +6187,10 @@
       <c r="F184" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G184" s="11" t="s">
+      <c r="G184" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="J184" s="12" t="s">
+      <c r="J184" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       <c r="G187" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J187" s="10" t="s">
+      <c r="J187" s="9" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
       <c r="G188" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J188" s="10" t="s">
+      <c r="J188" s="9" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6289,7 +6289,7 @@
       <c r="G190" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="J190" s="10" t="s">
+      <c r="J190" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       <c r="G191" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="J191" s="10" t="s">
+      <c r="J191" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6344,7 +6344,7 @@
       <c r="G193" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J193" s="10" t="s">
+      <c r="J193" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6367,7 +6367,7 @@
       <c r="G194" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J194" s="10" t="s">
+      <c r="J194" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6390,7 +6390,7 @@
       <c r="G195" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J195" s="10" t="s">
+      <c r="J195" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6413,7 +6413,7 @@
       <c r="G196" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J196" s="10" t="s">
+      <c r="J196" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       <c r="G197" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="J197" s="10" t="s">
+      <c r="J197" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6459,7 +6459,7 @@
       <c r="G198" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="J198" s="10" t="s">
+      <c r="J198" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6482,7 +6482,7 @@
       <c r="G199" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J199" s="10" t="s">
+      <c r="J199" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="G200" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J200" s="10" t="s">
+      <c r="J200" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6531,7 +6531,7 @@
       <c r="G201" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="J201" s="10" t="s">
+      <c r="J201" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6554,7 +6554,7 @@
       <c r="G202" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="J202" s="10" t="s">
+      <c r="J202" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
       <c r="G203" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="J203" s="12" t="s">
+      <c r="J203" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       <c r="G204" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="J204" s="12" t="s">
+      <c r="J204" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6620,7 +6620,7 @@
       <c r="G205" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J205" s="10" t="s">
+      <c r="J205" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       <c r="G206" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J206" s="10" t="s">
+      <c r="J206" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6663,7 +6663,7 @@
       <c r="G207" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="J207" s="10" t="s">
+      <c r="J207" s="9" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6683,7 +6683,7 @@
       <c r="G208" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="J208" s="10" t="s">
+      <c r="J208" s="9" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
       <c r="G209" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J209" s="10" t="s">
+      <c r="J209" s="9" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6723,7 +6723,7 @@
       <c r="G210" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="J210" s="10" t="s">
+      <c r="J210" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       <c r="G211" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="J211" s="12" t="s">
+      <c r="J211" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6760,10 +6760,10 @@
       <c r="F212" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G212" s="11" t="s">
+      <c r="G212" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="J212" s="12" t="s">
+      <c r="J212" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6780,10 +6780,10 @@
       <c r="F213" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="G213" s="11" t="s">
+      <c r="G213" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="J213" s="12" t="s">
+      <c r="J213" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6803,7 +6803,7 @@
       <c r="G214" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="J214" s="10" t="s">
+      <c r="J214" s="9" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
       <c r="G215" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J215" s="10" t="s">
+      <c r="J215" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       <c r="G216" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J216" s="10" t="s">
+      <c r="J216" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       <c r="G217" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="J217" s="12" t="s">
+      <c r="J217" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
       <c r="G218" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="J218" s="12" t="s">
+      <c r="J218" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6912,7 +6912,7 @@
       <c r="G219" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J219" s="10" t="s">
+      <c r="J219" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6935,7 +6935,7 @@
       <c r="G220" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J220" s="10" t="s">
+      <c r="J220" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6980,7 +6980,7 @@
         <v>171</v>
       </c>
       <c r="G223" s="6"/>
-      <c r="J223" s="12" t="s">
+      <c r="J223" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -7000,7 +7000,7 @@
       <c r="G224" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="J224" s="12" t="s">
+      <c r="J224" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -7020,7 +7020,7 @@
       <c r="G225" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="J225" s="10" t="s">
+      <c r="J225" s="9" t="s">
         <v>536</v>
       </c>
     </row>
